--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_16_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_16_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2116065.515496909</v>
+        <v>2115325.052676186</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1462975.848406075</v>
+        <v>1462975.848406074</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.0172406307679</v>
+        <v>251.017240630768</v>
       </c>
       <c r="C11" t="n">
-        <v>233.5562907382949</v>
+        <v>233.556290738295</v>
       </c>
       <c r="D11" t="n">
-        <v>222.9664405879703</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>275.1594447089988</v>
+        <v>133.5629929475273</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>283.0845181045931</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>65.87283976874606</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>119.5889224048975</v>
+        <v>119.5889224048976</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>217.5243676847005</v>
       </c>
       <c r="X11" t="n">
-        <v>238.0144996457564</v>
+        <v>238.0144996457565</v>
       </c>
       <c r="Y11" t="n">
-        <v>70.17315367110606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,22 +1446,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34.81658261715467</v>
+        <v>34.81658261715478</v>
       </c>
       <c r="C12" t="n">
-        <v>40.99189795560306</v>
+        <v>40.99189795560318</v>
       </c>
       <c r="D12" t="n">
-        <v>15.72846453192608</v>
+        <v>15.72846453192619</v>
       </c>
       <c r="E12" t="n">
-        <v>141.8780902789802</v>
+        <v>25.92847942268838</v>
       </c>
       <c r="F12" t="n">
-        <v>13.3526113606712</v>
+        <v>13.35261136067132</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0751276698277</v>
+        <v>121.3081374934059</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1500,16 +1500,16 @@
         <v>166.6979539789397</v>
       </c>
       <c r="T12" t="n">
-        <v>67.36632966027153</v>
+        <v>67.36632966027165</v>
       </c>
       <c r="U12" t="n">
         <v>225.9237248774628</v>
       </c>
       <c r="V12" t="n">
-        <v>101.0839861167126</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>119.9783821282069</v>
+        <v>119.978382128207</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.11537914922462</v>
+        <v>48.11537914922474</v>
       </c>
       <c r="C13" t="n">
-        <v>35.53022006591516</v>
+        <v>35.53022006591527</v>
       </c>
       <c r="D13" t="n">
-        <v>16.89887198549968</v>
+        <v>16.8988719854998</v>
       </c>
       <c r="E13" t="n">
-        <v>14.7173616138565</v>
+        <v>14.71736161385661</v>
       </c>
       <c r="F13" t="n">
-        <v>13.70444699021857</v>
+        <v>13.70444699021868</v>
       </c>
       <c r="G13" t="n">
-        <v>36.04936959028123</v>
+        <v>36.04936959028134</v>
       </c>
       <c r="H13" t="n">
-        <v>28.51003926304849</v>
+        <v>28.51003926304861</v>
       </c>
       <c r="I13" t="n">
-        <v>16.96724755892989</v>
+        <v>16.96724755893</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.45957938437358</v>
+        <v>35.4595793843737</v>
       </c>
       <c r="S13" t="n">
-        <v>88.37870840529484</v>
+        <v>88.37870840529497</v>
       </c>
       <c r="T13" t="n">
-        <v>95.26758743494628</v>
+        <v>95.26758743494639</v>
       </c>
       <c r="U13" t="n">
-        <v>154.5901551200256</v>
+        <v>154.5901551200257</v>
       </c>
       <c r="V13" t="n">
-        <v>120.4210422911153</v>
+        <v>120.4210422911154</v>
       </c>
       <c r="W13" t="n">
-        <v>154.8063973038783</v>
+        <v>154.8063973038784</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99305435632448</v>
+        <v>93.99305435632459</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.86805231938212</v>
+        <v>86.86805231938223</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>233.5562907382949</v>
       </c>
       <c r="D14" t="n">
-        <v>222.9664405879703</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>250.2137690395491</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>52.03181656273073</v>
+        <v>275.1594447089988</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>283.084518104593</v>
       </c>
       <c r="H14" t="n">
-        <v>202.6210018711095</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>59.42064602642672</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>65.87283976874606</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>119.5889224048975</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>196.0356574374222</v>
       </c>
       <c r="W14" t="n">
         <v>217.5243676847003</v>
       </c>
       <c r="X14" t="n">
-        <v>238.0144996457564</v>
+        <v>85.5267913088847</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,13 +1683,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>34.81658261715467</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>73.44736618701016</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>15.72846453192608</v>
       </c>
       <c r="E15" t="n">
         <v>25.92847942268827</v>
@@ -1698,7 +1698,7 @@
         <v>13.3526113606712</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0751276698277</v>
+        <v>5.358526637115014</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S15" t="n">
-        <v>34.981352946227</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T15" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U15" t="n">
-        <v>94.20712384475011</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V15" t="n">
         <v>101.0839861167126</v>
       </c>
       <c r="W15" t="n">
-        <v>152.4338503596143</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>74.0563841707648</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>73.96609474459169</v>
@@ -1813,7 +1813,7 @@
         <v>35.45957938437358</v>
       </c>
       <c r="S16" t="n">
-        <v>88.37870840529484</v>
+        <v>88.37870840529486</v>
       </c>
       <c r="T16" t="n">
         <v>95.26758743494628</v>
@@ -1856,7 +1856,7 @@
         <v>169.4965565155935</v>
       </c>
       <c r="G17" t="n">
-        <v>177.4216299111877</v>
+        <v>177.4216299111878</v>
       </c>
       <c r="H17" t="n">
         <v>96.95811367770423</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.92603421149219</v>
+        <v>13.92603421149218</v>
       </c>
       <c r="V17" t="n">
         <v>90.37276924401695</v>
@@ -1910,7 +1910,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y17" t="n">
-        <v>148.8584494299366</v>
+        <v>148.8584494299356</v>
       </c>
     </row>
     <row r="18">
@@ -1920,16 +1920,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>132.0491519757705</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>109.6433667609296</v>
       </c>
       <c r="I18" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,25 +1971,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T18" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9237248774628</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>117.3723368016893</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>148.6838485916426</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>80.67630274341029</v>
+        <v>48.92726692662031</v>
       </c>
       <c r="V19" t="n">
         <v>14.75815409771005</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>180.4328844084325</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>144.5508808461438</v>
       </c>
       <c r="F20" t="n">
-        <v>169.4965565155935</v>
+        <v>169.4965565155941</v>
       </c>
       <c r="G20" t="n">
         <v>177.4216299111877</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>7.524238820926591</v>
+        <v>36.13722242850022</v>
       </c>
       <c r="I21" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T21" t="n">
         <v>199.0829306929842</v>
@@ -2217,7 +2217,7 @@
         <v>225.9237248774628</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>14.31549393480165</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>13.18606330980466</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>48.92726692662031</v>
       </c>
       <c r="V22" t="n">
-        <v>14.75815409771005</v>
+        <v>195.1910385061426</v>
       </c>
       <c r="W22" t="n">
         <v>49.14350911047305</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>13.9260342114929</v>
+        <v>13.92603421149219</v>
       </c>
       <c r="V23" t="n">
         <v>90.37276924401695</v>
@@ -2400,22 +2400,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,13 +2445,13 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>29.26036015653788</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2460,10 +2460,10 @@
         <v>14.31549393480165</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>174.5322556783307</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>33.99892176186335</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>180.4328844084325</v>
       </c>
     </row>
     <row r="26">
@@ -2555,10 +2555,10 @@
         <v>232.6897813850286</v>
       </c>
       <c r="C26" t="n">
-        <v>215.2288314925556</v>
+        <v>215.2288314925555</v>
       </c>
       <c r="D26" t="n">
-        <v>204.638981342231</v>
+        <v>204.6389813422309</v>
       </c>
       <c r="E26" t="n">
         <v>231.8863097938098</v>
@@ -2573,7 +2573,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I26" t="n">
-        <v>41.09318678068743</v>
+        <v>41.09318678068738</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.54538052300678</v>
+        <v>47.54538052300671</v>
       </c>
       <c r="T26" t="n">
-        <v>70.85595483673137</v>
+        <v>70.85595483673131</v>
       </c>
       <c r="U26" t="n">
-        <v>101.2614631591582</v>
+        <v>101.2614631591581</v>
       </c>
       <c r="V26" t="n">
-        <v>177.708198191683</v>
+        <v>177.7081981916829</v>
       </c>
       <c r="W26" t="n">
-        <v>199.1969084389611</v>
+        <v>199.196908438961</v>
       </c>
       <c r="X26" t="n">
-        <v>219.6870404000171</v>
+        <v>219.687040400017</v>
       </c>
       <c r="Y26" t="n">
         <v>236.1938783776016</v>
@@ -2637,7 +2637,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S27" t="n">
-        <v>16.65389370048772</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T27" t="n">
-        <v>199.0829306929842</v>
+        <v>49.0388704145322</v>
       </c>
       <c r="U27" t="n">
         <v>225.9237248774628</v>
       </c>
       <c r="V27" t="n">
-        <v>177.1319342326968</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>101.6509228824677</v>
+        <v>101.6509228824676</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>55.72892492502547</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>69.11889494950479</v>
       </c>
     </row>
     <row r="28">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.78791990348535</v>
+        <v>29.78791990348529</v>
       </c>
       <c r="C28" t="n">
-        <v>17.20276082017588</v>
+        <v>17.20276082017583</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>17.72191034454196</v>
+        <v>17.7219103445419</v>
       </c>
       <c r="H28" t="n">
-        <v>10.18258001730922</v>
+        <v>10.18258001730916</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>17.1321201386343</v>
+        <v>17.13212013863425</v>
       </c>
       <c r="S28" t="n">
-        <v>70.05124915955557</v>
+        <v>70.05124915955552</v>
       </c>
       <c r="T28" t="n">
-        <v>76.940128189207</v>
+        <v>76.94012818920694</v>
       </c>
       <c r="U28" t="n">
-        <v>136.2626958742863</v>
+        <v>136.2626958742862</v>
       </c>
       <c r="V28" t="n">
-        <v>102.0935830453761</v>
+        <v>102.093583045376</v>
       </c>
       <c r="W28" t="n">
-        <v>136.4789380581391</v>
+        <v>136.478938058139</v>
       </c>
       <c r="X28" t="n">
-        <v>75.6655951105852</v>
+        <v>75.66559511058514</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.54059307364284</v>
+        <v>68.54059307364278</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I29" t="n">
-        <v>41.09318678068738</v>
+        <v>41.09318678068739</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.54538052300672</v>
+        <v>47.54538052300673</v>
       </c>
       <c r="T29" t="n">
         <v>70.85595483673131</v>
@@ -2871,10 +2871,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>22.66443870986373</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2883,13 +2883,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>105.825203072818</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H30" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>166.6979539789397</v>
       </c>
       <c r="T30" t="n">
-        <v>49.0388704145322</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U30" t="n">
         <v>225.9237248774628</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>82.75652687097326</v>
       </c>
       <c r="W30" t="n">
-        <v>101.6509228824676</v>
+        <v>107.5573397342387</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>55.63863549885235</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2998,7 +2998,7 @@
         <v>17.13212013863425</v>
       </c>
       <c r="S31" t="n">
-        <v>70.05124915955551</v>
+        <v>70.05124915955552</v>
       </c>
       <c r="T31" t="n">
         <v>76.94012818920694</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>232.6897813850286</v>
+        <v>232.6897813850287</v>
       </c>
       <c r="C32" t="n">
-        <v>215.2288314925556</v>
+        <v>215.2288314925557</v>
       </c>
       <c r="D32" t="n">
-        <v>204.638981342231</v>
+        <v>204.6389813422311</v>
       </c>
       <c r="E32" t="n">
-        <v>231.8863097938098</v>
+        <v>231.8863097938099</v>
       </c>
       <c r="F32" t="n">
-        <v>256.8319854632595</v>
+        <v>256.8319854632596</v>
       </c>
       <c r="G32" t="n">
-        <v>264.7570588588537</v>
+        <v>264.7570588588538</v>
       </c>
       <c r="H32" t="n">
-        <v>184.2935426253702</v>
+        <v>184.2935426253703</v>
       </c>
       <c r="I32" t="n">
-        <v>41.09318678068743</v>
+        <v>41.09318678068749</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.54538052300677</v>
+        <v>47.54538052300683</v>
       </c>
       <c r="T32" t="n">
-        <v>70.85595483673137</v>
+        <v>70.85595483673143</v>
       </c>
       <c r="U32" t="n">
         <v>101.2614631591582</v>
@@ -3095,7 +3095,7 @@
         <v>219.6870404000171</v>
       </c>
       <c r="Y32" t="n">
-        <v>236.1938783776016</v>
+        <v>236.1938783776017</v>
       </c>
     </row>
     <row r="33">
@@ -3105,13 +3105,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>16.48912337141545</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>22.66443870986384</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3120,13 +3120,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I33" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.849439786796183</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S33" t="n">
-        <v>16.65389370048772</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T33" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9237248774628</v>
+        <v>127.1616228533719</v>
       </c>
       <c r="V33" t="n">
-        <v>82.75652687097332</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>101.6509228824677</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>55.63863549885247</v>
       </c>
     </row>
     <row r="34">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.78791990348535</v>
+        <v>29.7879199034854</v>
       </c>
       <c r="C34" t="n">
-        <v>17.20276082017588</v>
+        <v>17.20276082017594</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>17.72191034454196</v>
+        <v>17.72191034454201</v>
       </c>
       <c r="H34" t="n">
-        <v>10.18258001730922</v>
+        <v>10.18258001730927</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>17.1321201386343</v>
+        <v>17.13212013863436</v>
       </c>
       <c r="S34" t="n">
-        <v>70.05124915955557</v>
+        <v>70.05124915955564</v>
       </c>
       <c r="T34" t="n">
-        <v>76.940128189207</v>
+        <v>76.94012818920706</v>
       </c>
       <c r="U34" t="n">
-        <v>136.2626958742863</v>
+        <v>136.2626958742864</v>
       </c>
       <c r="V34" t="n">
         <v>102.0935830453761</v>
@@ -3250,10 +3250,10 @@
         <v>136.4789380581391</v>
       </c>
       <c r="X34" t="n">
-        <v>75.6655951105852</v>
+        <v>75.66559511058526</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.54059307364284</v>
+        <v>68.5405930736429</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>145.3543524373627</v>
+        <v>145.3543524373626</v>
       </c>
       <c r="C35" t="n">
-        <v>127.8934025448897</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D35" t="n">
-        <v>117.3035523945651</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E35" t="n">
         <v>144.5508808461439</v>
@@ -3281,7 +3281,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H35" t="n">
-        <v>96.95811367770429</v>
+        <v>96.95811367770426</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>13.92603421149225</v>
+        <v>13.92603421149221</v>
       </c>
       <c r="V35" t="n">
-        <v>90.37276924401701</v>
+        <v>90.37276924401698</v>
       </c>
       <c r="W35" t="n">
         <v>111.8614794912951</v>
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>46.63777034663239</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,16 +3354,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,25 +3390,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>150.3904023088724</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.20624411267116</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>160.2266402957612</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>48.92726692662036</v>
+        <v>229.3601513350528</v>
       </c>
       <c r="V37" t="n">
-        <v>14.7581540977101</v>
+        <v>14.75815409771008</v>
       </c>
       <c r="W37" t="n">
-        <v>49.1435091104731</v>
+        <v>49.14350911047308</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>145.3543524373627</v>
+        <v>145.3543524373626</v>
       </c>
       <c r="C38" t="n">
-        <v>127.8934025448897</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D38" t="n">
-        <v>117.3035523945651</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E38" t="n">
         <v>144.5508808461439</v>
@@ -3518,7 +3518,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H38" t="n">
-        <v>96.95811367770429</v>
+        <v>96.95811367770426</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.92603421149224</v>
+        <v>13.92603421149221</v>
       </c>
       <c r="V38" t="n">
-        <v>90.37276924401701</v>
+        <v>90.37276924401698</v>
       </c>
       <c r="W38" t="n">
         <v>111.8614794912951</v>
@@ -3582,16 +3582,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3630,19 +3630,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>34.97579412424302</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T39" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>113.1980050282481</v>
       </c>
       <c r="W39" t="n">
-        <v>14.31549393480171</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>180.4328844084324</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>48.92726692662036</v>
+        <v>48.92726692662033</v>
       </c>
       <c r="V40" t="n">
-        <v>14.7581540977101</v>
+        <v>14.75815409771008</v>
       </c>
       <c r="W40" t="n">
-        <v>49.1435091104731</v>
+        <v>49.14350911047308</v>
       </c>
       <c r="X40" t="n">
-        <v>180.4328844084323</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>161.8338265482972</v>
+        <v>161.8338265482973</v>
       </c>
       <c r="C41" t="n">
         <v>144.3728766558242</v>
@@ -3746,16 +3746,16 @@
         <v>133.7830265054996</v>
       </c>
       <c r="E41" t="n">
-        <v>161.0303549570784</v>
+        <v>161.0303549570785</v>
       </c>
       <c r="F41" t="n">
         <v>185.9760306265281</v>
       </c>
       <c r="G41" t="n">
-        <v>193.9011040221223</v>
+        <v>193.9011040221224</v>
       </c>
       <c r="H41" t="n">
-        <v>113.4375877886388</v>
+        <v>113.4375877886389</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.40550832242677</v>
+        <v>30.40550832242681</v>
       </c>
       <c r="V41" t="n">
-        <v>106.8522433549515</v>
+        <v>106.8522433549516</v>
       </c>
       <c r="W41" t="n">
-        <v>128.3409536022296</v>
+        <v>128.3409536022297</v>
       </c>
       <c r="X41" t="n">
         <v>148.8310855632857</v>
       </c>
       <c r="Y41" t="n">
-        <v>165.3379235408702</v>
+        <v>165.3379235408703</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3825,13 +3825,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>87.35788153854139</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3873,7 +3873,7 @@
         <v>199.0829306929842</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9237248774628</v>
+        <v>5.02370976227946</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3882,10 +3882,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>4.657310535393477</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.1006484492995</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6.084173352475568</v>
+        <v>6.084173352475625</v>
       </c>
       <c r="U43" t="n">
-        <v>65.40674103755488</v>
+        <v>185.5073894868542</v>
       </c>
       <c r="V43" t="n">
-        <v>31.23762820864462</v>
+        <v>31.23762820864468</v>
       </c>
       <c r="W43" t="n">
-        <v>65.62298322140762</v>
+        <v>65.62298322140768</v>
       </c>
       <c r="X43" t="n">
-        <v>4.809640273853773</v>
+        <v>4.80964027385383</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>161.8338265482973</v>
+        <v>161.8338265482974</v>
       </c>
       <c r="C44" t="n">
-        <v>144.3728766558242</v>
+        <v>144.3728766558243</v>
       </c>
       <c r="D44" t="n">
-        <v>133.7830265054996</v>
+        <v>133.7830265054997</v>
       </c>
       <c r="E44" t="n">
-        <v>161.0303549570771</v>
+        <v>161.0303549570786</v>
       </c>
       <c r="F44" t="n">
-        <v>185.9760306265281</v>
+        <v>185.9760306265282</v>
       </c>
       <c r="G44" t="n">
-        <v>193.9011040221224</v>
+        <v>193.9011040221225</v>
       </c>
       <c r="H44" t="n">
-        <v>113.4375877886389</v>
+        <v>113.437587788639</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>30.40550832242682</v>
+        <v>30.40550832242694</v>
       </c>
       <c r="V44" t="n">
-        <v>106.8522433549516</v>
+        <v>106.8522433549517</v>
       </c>
       <c r="W44" t="n">
-        <v>128.3409536022297</v>
+        <v>128.3409536022298</v>
       </c>
       <c r="X44" t="n">
-        <v>148.8310855632857</v>
+        <v>148.8310855632858</v>
       </c>
       <c r="Y44" t="n">
-        <v>165.3379235408703</v>
+        <v>165.3379235408704</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>40.39112870305409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -4065,10 +4065,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T45" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9237248774628</v>
+        <v>5.023709762279574</v>
       </c>
       <c r="V45" t="n">
-        <v>11.90057203424195</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>249.8505820224644</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>6.084173352475625</v>
+        <v>6.084173352475738</v>
       </c>
       <c r="U46" t="n">
-        <v>65.40674103755494</v>
+        <v>185.5073894868537</v>
       </c>
       <c r="V46" t="n">
-        <v>31.23762820864468</v>
+        <v>31.23762820864479</v>
       </c>
       <c r="W46" t="n">
-        <v>65.62298322140768</v>
+        <v>65.62298322140779</v>
       </c>
       <c r="X46" t="n">
-        <v>4.80964027385383</v>
+        <v>4.809640273853944</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.1006484492992</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>769.5068121600593</v>
+        <v>687.2054240339496</v>
       </c>
       <c r="C11" t="n">
-        <v>533.5913669698624</v>
+        <v>451.2899788437527</v>
       </c>
       <c r="D11" t="n">
-        <v>308.3727401133268</v>
+        <v>451.2899788437527</v>
       </c>
       <c r="E11" t="n">
-        <v>308.3727401133268</v>
+        <v>451.2899788437527</v>
       </c>
       <c r="F11" t="n">
-        <v>30.433907073934</v>
+        <v>316.3778647553412</v>
       </c>
       <c r="G11" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H11" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I11" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J11" t="n">
-        <v>60.75260108020984</v>
+        <v>60.75260108020939</v>
       </c>
       <c r="K11" t="n">
-        <v>226.937268332656</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L11" t="n">
-        <v>485.3806706550287</v>
+        <v>485.3806706550282</v>
       </c>
       <c r="M11" t="n">
-        <v>789.5552979241027</v>
+        <v>789.5552979241022</v>
       </c>
       <c r="N11" t="n">
-        <v>1084.01979112136</v>
+        <v>1084.019791121359</v>
       </c>
       <c r="O11" t="n">
-        <v>1316.88662418693</v>
+        <v>1316.886624186929</v>
       </c>
       <c r="P11" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q11" t="n">
         <v>1521.6953536967</v>
@@ -5066,25 +5066,25 @@
         <v>1521.6953536967</v>
       </c>
       <c r="S11" t="n">
-        <v>1455.157131708067</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T11" t="n">
-        <v>1455.157131708067</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="U11" t="n">
-        <v>1334.360240389989</v>
+        <v>1400.898462378621</v>
       </c>
       <c r="V11" t="n">
-        <v>1334.360240389989</v>
+        <v>1400.898462378621</v>
       </c>
       <c r="W11" t="n">
-        <v>1334.360240389989</v>
+        <v>1181.176878858722</v>
       </c>
       <c r="X11" t="n">
-        <v>1093.941553879124</v>
+        <v>940.7581923478567</v>
       </c>
       <c r="Y11" t="n">
-        <v>1023.059580473966</v>
+        <v>940.7581923478567</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>382.985615959801</v>
+        <v>249.9385442095855</v>
       </c>
       <c r="C12" t="n">
-        <v>341.5796584288888</v>
+        <v>208.5325866786732</v>
       </c>
       <c r="D12" t="n">
-        <v>325.6923205178523</v>
+        <v>192.6452487676366</v>
       </c>
       <c r="E12" t="n">
-        <v>182.3811182158521</v>
+        <v>166.4548655123959</v>
       </c>
       <c r="F12" t="n">
-        <v>168.8936319929519</v>
+        <v>152.9673792894955</v>
       </c>
       <c r="G12" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H12" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I12" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J12" t="n">
-        <v>30.433907073934</v>
+        <v>54.7981338372213</v>
       </c>
       <c r="K12" t="n">
-        <v>30.433907073934</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L12" t="n">
-        <v>223.1030253215078</v>
+        <v>510.7163377867617</v>
       </c>
       <c r="M12" t="n">
-        <v>599.722625361441</v>
+        <v>887.3359378266948</v>
       </c>
       <c r="N12" t="n">
-        <v>976.3422254013742</v>
+        <v>887.3359378266948</v>
       </c>
       <c r="O12" t="n">
-        <v>1288.313760533886</v>
+        <v>1199.307472959206</v>
       </c>
       <c r="P12" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q12" t="n">
         <v>1521.6953536967</v>
@@ -5151,19 +5151,19 @@
         <v>1285.266784364163</v>
       </c>
       <c r="U12" t="n">
-        <v>1057.061001659656</v>
+        <v>1057.061001659655</v>
       </c>
       <c r="V12" t="n">
-        <v>954.9559651781277</v>
+        <v>821.9088934279125</v>
       </c>
       <c r="W12" t="n">
-        <v>833.7656802001409</v>
+        <v>700.7186084499256</v>
       </c>
       <c r="X12" t="n">
-        <v>625.914179994608</v>
+        <v>492.8671082443927</v>
       </c>
       <c r="Y12" t="n">
-        <v>418.1538812296541</v>
+        <v>285.1068094794388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.4516414858022</v>
+        <v>194.451641485803</v>
       </c>
       <c r="C13" t="n">
-        <v>158.5625303081102</v>
+        <v>158.5625303081108</v>
       </c>
       <c r="D13" t="n">
-        <v>141.4929626459893</v>
+        <v>141.4929626459898</v>
       </c>
       <c r="E13" t="n">
-        <v>126.626940813811</v>
+        <v>126.6269408138114</v>
       </c>
       <c r="F13" t="n">
-        <v>112.7840650661154</v>
+        <v>112.7840650661158</v>
       </c>
       <c r="G13" t="n">
-        <v>76.37056042946773</v>
+        <v>76.37056042946796</v>
       </c>
       <c r="H13" t="n">
-        <v>47.57254097184298</v>
+        <v>47.5725409718431</v>
       </c>
       <c r="I13" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J13" t="n">
-        <v>84.15679020220485</v>
+        <v>84.15679020220473</v>
       </c>
       <c r="K13" t="n">
-        <v>87.99049804774803</v>
+        <v>218.3899330701333</v>
       </c>
       <c r="L13" t="n">
-        <v>263.9114356143787</v>
+        <v>394.3108706367665</v>
       </c>
       <c r="M13" t="n">
-        <v>468.4173394595703</v>
+        <v>598.816774481958</v>
       </c>
       <c r="N13" t="n">
-        <v>676.5957735341108</v>
+        <v>806.9952085564984</v>
       </c>
       <c r="O13" t="n">
-        <v>862.8204075624633</v>
+        <v>862.8204075624652</v>
       </c>
       <c r="P13" t="n">
-        <v>1017.467262206713</v>
+        <v>1017.467262206715</v>
       </c>
       <c r="Q13" t="n">
-        <v>1081.219273571222</v>
+        <v>1081.219273571223</v>
       </c>
       <c r="R13" t="n">
-        <v>1045.401516617309</v>
+        <v>1045.401516617311</v>
       </c>
       <c r="S13" t="n">
-        <v>956.130093985698</v>
+        <v>956.1300939856995</v>
       </c>
       <c r="T13" t="n">
-        <v>859.9002076877724</v>
+        <v>859.9002076877739</v>
       </c>
       <c r="U13" t="n">
-        <v>703.7485358493627</v>
+        <v>703.7485358493641</v>
       </c>
       <c r="V13" t="n">
-        <v>582.1111193936907</v>
+        <v>582.111119393692</v>
       </c>
       <c r="W13" t="n">
-        <v>425.7410211069449</v>
+        <v>425.7410211069461</v>
       </c>
       <c r="X13" t="n">
-        <v>330.7985419591424</v>
+        <v>330.7985419591434</v>
       </c>
       <c r="Y13" t="n">
-        <v>243.0530345658271</v>
+        <v>243.053034565828</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1061.555083665935</v>
+        <v>830.2321429849308</v>
       </c>
       <c r="C14" t="n">
-        <v>825.6396384757386</v>
+        <v>594.316697794734</v>
       </c>
       <c r="D14" t="n">
-        <v>600.4210116192029</v>
+        <v>594.316697794734</v>
       </c>
       <c r="E14" t="n">
-        <v>347.6798307711733</v>
+        <v>594.316697794734</v>
       </c>
       <c r="F14" t="n">
-        <v>295.1224403037686</v>
+        <v>316.3778647553411</v>
       </c>
       <c r="G14" t="n">
-        <v>295.1224403037686</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H14" t="n">
-        <v>90.45476164608222</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I14" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J14" t="n">
-        <v>60.75260108020956</v>
+        <v>60.75260108020954</v>
       </c>
       <c r="K14" t="n">
         <v>226.9372683326556</v>
@@ -5285,7 +5285,7 @@
         <v>485.3806706550283</v>
       </c>
       <c r="M14" t="n">
-        <v>789.5552979241023</v>
+        <v>789.5552979241022</v>
       </c>
       <c r="N14" t="n">
         <v>1084.019791121359</v>
@@ -5300,28 +5300,28 @@
         <v>1521.6953536967</v>
       </c>
       <c r="R14" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S14" t="n">
-        <v>1521.6953536967</v>
+        <v>1455.157131708067</v>
       </c>
       <c r="T14" t="n">
-        <v>1521.6953536967</v>
+        <v>1455.157131708067</v>
       </c>
       <c r="U14" t="n">
-        <v>1521.6953536967</v>
+        <v>1334.360240389989</v>
       </c>
       <c r="V14" t="n">
-        <v>1521.6953536967</v>
+        <v>1136.344424796633</v>
       </c>
       <c r="W14" t="n">
-        <v>1301.9737701768</v>
+        <v>916.6228412767335</v>
       </c>
       <c r="X14" t="n">
-        <v>1061.555083665935</v>
+        <v>830.2321429849308</v>
       </c>
       <c r="Y14" t="n">
-        <v>1061.555083665935</v>
+        <v>830.2321429849308</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>531.9589404134711</v>
+        <v>165.6010264066721</v>
       </c>
       <c r="C15" t="n">
-        <v>357.505911132344</v>
+        <v>91.41176763191436</v>
       </c>
       <c r="D15" t="n">
-        <v>208.5715014710927</v>
+        <v>75.52442972087792</v>
       </c>
       <c r="E15" t="n">
-        <v>182.3811182158521</v>
+        <v>49.33404646563724</v>
       </c>
       <c r="F15" t="n">
-        <v>168.8936319929519</v>
+        <v>35.84656024273703</v>
       </c>
       <c r="G15" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H15" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I15" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J15" t="n">
-        <v>30.433907073934</v>
+        <v>54.79813383722129</v>
       </c>
       <c r="K15" t="n">
-        <v>198.6970944041448</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L15" t="n">
-        <v>486.3521110234744</v>
+        <v>223.1030253215075</v>
       </c>
       <c r="M15" t="n">
-        <v>862.9717110634076</v>
+        <v>599.7226253614406</v>
       </c>
       <c r="N15" t="n">
-        <v>873.0305803211015</v>
+        <v>976.3422254013738</v>
       </c>
       <c r="O15" t="n">
-        <v>1185.002115453613</v>
+        <v>1288.313760533885</v>
       </c>
       <c r="P15" t="n">
-        <v>1418.383708616427</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="Q15" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R15" t="n">
         <v>1437.357835893786</v>
       </c>
       <c r="S15" t="n">
-        <v>1402.023135948103</v>
+        <v>1268.976064197887</v>
       </c>
       <c r="T15" t="n">
-        <v>1200.92926656125</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="U15" t="n">
-        <v>1105.770555606957</v>
+        <v>839.6764121065268</v>
       </c>
       <c r="V15" t="n">
-        <v>1003.665519125429</v>
+        <v>737.5713756249988</v>
       </c>
       <c r="W15" t="n">
-        <v>849.6919329035962</v>
+        <v>483.3340188967972</v>
       </c>
       <c r="X15" t="n">
-        <v>774.8875044482783</v>
+        <v>275.4825186912644</v>
       </c>
       <c r="Y15" t="n">
-        <v>700.1742774335391</v>
+        <v>200.7692916765253</v>
       </c>
     </row>
     <row r="16">
@@ -5425,31 +5425,31 @@
         <v>112.7840650661154</v>
       </c>
       <c r="G16" t="n">
-        <v>76.37056042946773</v>
+        <v>76.37056042946772</v>
       </c>
       <c r="H16" t="n">
-        <v>47.57254097184298</v>
+        <v>47.57254097184297</v>
       </c>
       <c r="I16" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J16" t="n">
-        <v>84.15679020220485</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K16" t="n">
-        <v>218.3899330701336</v>
+        <v>164.6670499418627</v>
       </c>
       <c r="L16" t="n">
-        <v>409.2216288383618</v>
+        <v>355.4987457100909</v>
       </c>
       <c r="M16" t="n">
-        <v>613.7275326835534</v>
+        <v>560.0046495552825</v>
       </c>
       <c r="N16" t="n">
-        <v>691.5065317357083</v>
+        <v>768.183083629823</v>
       </c>
       <c r="O16" t="n">
-        <v>877.7311657640607</v>
+        <v>862.8204075624634</v>
       </c>
       <c r="P16" t="n">
         <v>1017.467262206713</v>
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>872.4784887810895</v>
+        <v>872.4784887810897</v>
       </c>
       <c r="C17" t="n">
-        <v>743.2932336852414</v>
+        <v>743.2932336852417</v>
       </c>
       <c r="D17" t="n">
-        <v>624.8047969230545</v>
+        <v>624.8047969230548</v>
       </c>
       <c r="E17" t="n">
-        <v>478.7938061693738</v>
+        <v>478.7938061693742</v>
       </c>
       <c r="F17" t="n">
-        <v>307.5851632243298</v>
+        <v>307.5851632243302</v>
       </c>
       <c r="G17" t="n">
         <v>128.3713956372716</v>
       </c>
       <c r="H17" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I17" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J17" t="n">
-        <v>60.75260108020956</v>
+        <v>60.75260108020954</v>
       </c>
       <c r="K17" t="n">
         <v>226.9372683326556</v>
@@ -5522,7 +5522,7 @@
         <v>485.3806706550283</v>
       </c>
       <c r="M17" t="n">
-        <v>789.5552979241023</v>
+        <v>789.5552979241022</v>
       </c>
       <c r="N17" t="n">
         <v>1084.019791121359</v>
@@ -5531,31 +5531,31 @@
         <v>1316.886624186929</v>
       </c>
       <c r="P17" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q17" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R17" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S17" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T17" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U17" t="n">
-        <v>1507.628652472971</v>
+        <v>1507.62865247297</v>
       </c>
       <c r="V17" t="n">
-        <v>1416.343026973964</v>
+        <v>1416.343026973963</v>
       </c>
       <c r="W17" t="n">
-        <v>1303.351633548413</v>
+        <v>1303.351633548412</v>
       </c>
       <c r="X17" t="n">
-        <v>1169.663137131897</v>
+        <v>1169.663137131896</v>
       </c>
       <c r="Y17" t="n">
         <v>1019.301067000648</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>704.7753630834302</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="C18" t="n">
-        <v>530.3223338023032</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="D18" t="n">
-        <v>381.3879241410519</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="E18" t="n">
-        <v>222.1504691355965</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="F18" t="n">
-        <v>222.1504691355965</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="G18" t="n">
-        <v>222.1504691355965</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="H18" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I18" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J18" t="n">
-        <v>30.433907073934</v>
+        <v>54.79813383722129</v>
       </c>
       <c r="K18" t="n">
-        <v>198.6970944041448</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L18" t="n">
-        <v>486.3521110234744</v>
+        <v>510.7163377867616</v>
       </c>
       <c r="M18" t="n">
-        <v>862.9717110634076</v>
+        <v>887.3359378266948</v>
       </c>
       <c r="N18" t="n">
-        <v>873.0305803211015</v>
+        <v>887.3359378266948</v>
       </c>
       <c r="O18" t="n">
-        <v>1185.002115453613</v>
+        <v>1199.307472959206</v>
       </c>
       <c r="P18" t="n">
-        <v>1418.383708616427</v>
+        <v>1432.68906612202</v>
       </c>
       <c r="Q18" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R18" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S18" t="n">
-        <v>1521.6953536967</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="T18" t="n">
-        <v>1320.601484309847</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="U18" t="n">
-        <v>1092.395701605339</v>
+        <v>1125.107799296293</v>
       </c>
       <c r="V18" t="n">
-        <v>1092.395701605339</v>
+        <v>889.9556910645504</v>
       </c>
       <c r="W18" t="n">
-        <v>838.1583448771378</v>
+        <v>635.7183343363488</v>
       </c>
       <c r="X18" t="n">
-        <v>838.1583448771378</v>
+        <v>517.1604183750464</v>
       </c>
       <c r="Y18" t="n">
-        <v>838.1583448771378</v>
+        <v>309.4001196100925</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>180.6196127220578</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="C19" t="n">
-        <v>180.6196127220578</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="D19" t="n">
-        <v>180.6196127220578</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E19" t="n">
-        <v>180.6196127220578</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F19" t="n">
-        <v>180.6196127220578</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G19" t="n">
-        <v>180.6196127220578</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H19" t="n">
-        <v>180.6196127220578</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I19" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J19" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K19" t="n">
-        <v>34.26761491947719</v>
+        <v>34.26761491947718</v>
       </c>
       <c r="L19" t="n">
-        <v>94.69987566531981</v>
+        <v>94.69987566531978</v>
       </c>
       <c r="M19" t="n">
         <v>168.8063444881259</v>
@@ -5704,19 +5704,19 @@
         <v>326.6579621681117</v>
       </c>
       <c r="U19" t="n">
-        <v>245.1667472757781</v>
+        <v>277.2364804240508</v>
       </c>
       <c r="V19" t="n">
-        <v>230.2595209144548</v>
+        <v>262.3292540627275</v>
       </c>
       <c r="W19" t="n">
-        <v>180.6196127220578</v>
+        <v>212.6893458703305</v>
       </c>
       <c r="X19" t="n">
-        <v>180.6196127220578</v>
+        <v>212.6893458703305</v>
       </c>
       <c r="Y19" t="n">
-        <v>180.6196127220578</v>
+        <v>30.43390707393399</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>872.4784887810905</v>
+        <v>872.4784887810897</v>
       </c>
       <c r="C20" t="n">
-        <v>743.2932336852424</v>
+        <v>743.2932336852419</v>
       </c>
       <c r="D20" t="n">
-        <v>624.8047969230555</v>
+        <v>624.8047969230551</v>
       </c>
       <c r="E20" t="n">
-        <v>478.7938061693749</v>
+        <v>478.7938061693744</v>
       </c>
       <c r="F20" t="n">
-        <v>307.5851632243309</v>
+        <v>307.5851632243298</v>
       </c>
       <c r="G20" t="n">
         <v>128.3713956372716</v>
       </c>
       <c r="H20" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I20" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J20" t="n">
-        <v>60.75260108020956</v>
+        <v>60.75260108020954</v>
       </c>
       <c r="K20" t="n">
         <v>226.9372683326556</v>
@@ -5759,7 +5759,7 @@
         <v>485.3806706550283</v>
       </c>
       <c r="M20" t="n">
-        <v>789.5552979241023</v>
+        <v>789.5552979241022</v>
       </c>
       <c r="N20" t="n">
         <v>1084.019791121359</v>
@@ -5777,25 +5777,25 @@
         <v>1521.6953536967</v>
       </c>
       <c r="S20" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T20" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U20" t="n">
-        <v>1507.628652472971</v>
+        <v>1507.62865247297</v>
       </c>
       <c r="V20" t="n">
-        <v>1416.343026973964</v>
+        <v>1416.343026973963</v>
       </c>
       <c r="W20" t="n">
-        <v>1303.351633548413</v>
+        <v>1303.351633548412</v>
       </c>
       <c r="X20" t="n">
-        <v>1169.663137131897</v>
+        <v>1169.663137131896</v>
       </c>
       <c r="Y20" t="n">
-        <v>1019.301067000649</v>
+        <v>1019.301067000648</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>427.1716995194719</v>
+        <v>241.389181232334</v>
       </c>
       <c r="C21" t="n">
-        <v>427.1716995194719</v>
+        <v>66.93615195120694</v>
       </c>
       <c r="D21" t="n">
-        <v>278.2372898582207</v>
+        <v>66.93615195120694</v>
       </c>
       <c r="E21" t="n">
-        <v>118.9998348527652</v>
+        <v>66.93615195120694</v>
       </c>
       <c r="F21" t="n">
-        <v>118.9998348527652</v>
+        <v>66.93615195120694</v>
       </c>
       <c r="G21" t="n">
-        <v>118.9998348527652</v>
+        <v>66.93615195120694</v>
       </c>
       <c r="H21" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I21" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J21" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K21" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="L21" t="n">
         <v>318.0889236932636</v>
       </c>
       <c r="M21" t="n">
-        <v>496.4109802811683</v>
+        <v>694.7085237331967</v>
       </c>
       <c r="N21" t="n">
-        <v>873.0305803211015</v>
+        <v>1071.32812377313</v>
       </c>
       <c r="O21" t="n">
-        <v>1185.002115453613</v>
+        <v>1383.299658905641</v>
       </c>
       <c r="P21" t="n">
-        <v>1418.383708616427</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="Q21" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R21" t="n">
-        <v>1521.6953536967</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S21" t="n">
-        <v>1521.6953536967</v>
+        <v>1268.976064197887</v>
       </c>
       <c r="T21" t="n">
-        <v>1320.601484309847</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="U21" t="n">
-        <v>1092.395701605339</v>
+        <v>839.6764121065268</v>
       </c>
       <c r="V21" t="n">
-        <v>857.2435933735967</v>
+        <v>839.6764121065268</v>
       </c>
       <c r="W21" t="n">
-        <v>842.7834984899587</v>
+        <v>825.2163172228887</v>
       </c>
       <c r="X21" t="n">
-        <v>634.9319982844258</v>
+        <v>617.3648170173559</v>
       </c>
       <c r="Y21" t="n">
-        <v>427.1716995194719</v>
+        <v>409.604518252402</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>212.6893458703305</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="C22" t="n">
-        <v>43.75316294242356</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="D22" t="n">
-        <v>43.75316294242356</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E22" t="n">
-        <v>43.75316294242356</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F22" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G22" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H22" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I22" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J22" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K22" t="n">
-        <v>34.26761491947719</v>
+        <v>34.26761491947718</v>
       </c>
       <c r="L22" t="n">
-        <v>94.69987566531981</v>
+        <v>94.69987566531978</v>
       </c>
       <c r="M22" t="n">
         <v>168.8063444881259</v>
@@ -5944,16 +5944,16 @@
         <v>277.2364804240508</v>
       </c>
       <c r="V22" t="n">
-        <v>262.3292540627275</v>
+        <v>80.07381526633101</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6893458703305</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="X22" t="n">
-        <v>212.6893458703305</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="Y22" t="n">
-        <v>212.6893458703305</v>
+        <v>30.43390707393399</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>872.4784887810895</v>
+        <v>872.4784887810897</v>
       </c>
       <c r="C23" t="n">
-        <v>743.2932336852414</v>
+        <v>743.2932336852416</v>
       </c>
       <c r="D23" t="n">
-        <v>624.8047969230545</v>
+        <v>624.8047969230547</v>
       </c>
       <c r="E23" t="n">
-        <v>478.7938061693739</v>
+        <v>478.7938061693741</v>
       </c>
       <c r="F23" t="n">
-        <v>307.5851632243299</v>
+        <v>307.5851632243301</v>
       </c>
       <c r="G23" t="n">
         <v>128.3713956372716</v>
       </c>
       <c r="H23" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I23" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J23" t="n">
-        <v>60.75260108020956</v>
+        <v>60.75260108020954</v>
       </c>
       <c r="K23" t="n">
         <v>226.9372683326556</v>
@@ -5996,7 +5996,7 @@
         <v>485.3806706550283</v>
       </c>
       <c r="M23" t="n">
-        <v>789.5552979241023</v>
+        <v>789.5552979241022</v>
       </c>
       <c r="N23" t="n">
         <v>1084.019791121359</v>
@@ -6005,19 +6005,19 @@
         <v>1316.886624186929</v>
       </c>
       <c r="P23" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q23" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R23" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S23" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T23" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U23" t="n">
         <v>1507.62865247297</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>843.2350880024482</v>
+        <v>204.886936355061</v>
       </c>
       <c r="C24" t="n">
-        <v>668.7820587213212</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="D24" t="n">
-        <v>519.8476490600699</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E24" t="n">
-        <v>360.6101940546143</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F24" t="n">
-        <v>360.6101940546143</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G24" t="n">
-        <v>222.1504691355965</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H24" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I24" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J24" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K24" t="n">
-        <v>119.7913802412351</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="L24" t="n">
-        <v>119.7913802412351</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="M24" t="n">
-        <v>496.4109802811683</v>
+        <v>575.3166944440779</v>
       </c>
       <c r="N24" t="n">
-        <v>873.0305803211015</v>
+        <v>951.9362944840111</v>
       </c>
       <c r="O24" t="n">
-        <v>1185.002115453613</v>
+        <v>1263.907829616523</v>
       </c>
       <c r="P24" t="n">
         <v>1418.383708616427</v>
       </c>
       <c r="Q24" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R24" t="n">
         <v>1437.357835893786</v>
       </c>
       <c r="S24" t="n">
-        <v>1437.357835893786</v>
+        <v>1268.976064197887</v>
       </c>
       <c r="T24" t="n">
-        <v>1437.357835893786</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="U24" t="n">
-        <v>1437.357835893786</v>
+        <v>1038.326275460996</v>
       </c>
       <c r="V24" t="n">
-        <v>1202.205727662044</v>
+        <v>803.1741672292537</v>
       </c>
       <c r="W24" t="n">
-        <v>1187.745632778406</v>
+        <v>788.7140723456157</v>
       </c>
       <c r="X24" t="n">
-        <v>1187.745632778406</v>
+        <v>580.8625721400829</v>
       </c>
       <c r="Y24" t="n">
-        <v>1011.450425022516</v>
+        <v>373.102273375129</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>178.3470006563271</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="C25" t="n">
-        <v>178.3470006563271</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="D25" t="n">
-        <v>178.3470006563271</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E25" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F25" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G25" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H25" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I25" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J25" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K25" t="n">
-        <v>34.26761491947719</v>
+        <v>34.26761491947718</v>
       </c>
       <c r="L25" t="n">
-        <v>94.69987566531981</v>
+        <v>94.69987566531978</v>
       </c>
       <c r="M25" t="n">
         <v>168.8063444881259</v>
@@ -6172,25 +6172,25 @@
         <v>326.6579621681117</v>
       </c>
       <c r="S25" t="n">
-        <v>292.3156169541084</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="T25" t="n">
-        <v>292.3156169541084</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="U25" t="n">
-        <v>242.8941352100474</v>
+        <v>277.2364804240508</v>
       </c>
       <c r="V25" t="n">
-        <v>227.9869088487241</v>
+        <v>262.3292540627275</v>
       </c>
       <c r="W25" t="n">
-        <v>178.3470006563271</v>
+        <v>212.6893458703305</v>
       </c>
       <c r="X25" t="n">
-        <v>178.3470006563271</v>
+        <v>212.6893458703305</v>
       </c>
       <c r="Y25" t="n">
-        <v>178.3470006563271</v>
+        <v>30.43390707393399</v>
       </c>
     </row>
     <row r="26">
@@ -6200,55 +6200,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1468.184568607515</v>
+        <v>1468.184568607514</v>
       </c>
       <c r="C26" t="n">
         <v>1250.781708514024</v>
       </c>
       <c r="D26" t="n">
-        <v>1044.075666754195</v>
+        <v>1044.075666754194</v>
       </c>
       <c r="E26" t="n">
-        <v>809.8470710028721</v>
+        <v>809.8470710028714</v>
       </c>
       <c r="F26" t="n">
-        <v>550.420823060186</v>
+        <v>550.4208230601851</v>
       </c>
       <c r="G26" t="n">
-        <v>282.9894504754852</v>
+        <v>282.9894504754843</v>
       </c>
       <c r="H26" t="n">
-        <v>96.83435691450504</v>
+        <v>96.83435691450433</v>
       </c>
       <c r="I26" t="n">
-        <v>55.32608743906319</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J26" t="n">
-        <v>234.1884011210062</v>
+        <v>234.1884011210063</v>
       </c>
       <c r="K26" t="n">
-        <v>548.9166880491196</v>
+        <v>548.9166880491198</v>
       </c>
       <c r="L26" t="n">
-        <v>955.9037100471596</v>
+        <v>955.9037100471602</v>
       </c>
       <c r="M26" t="n">
-        <v>1408.621956991901</v>
+        <v>1408.621956991902</v>
       </c>
       <c r="N26" t="n">
-        <v>1851.630069864827</v>
+        <v>1851.630069864826</v>
       </c>
       <c r="O26" t="n">
-        <v>2233.040522606064</v>
+        <v>2233.040522606063</v>
       </c>
       <c r="P26" t="n">
-        <v>2542.656213831069</v>
+        <v>2542.656213831068</v>
       </c>
       <c r="Q26" t="n">
-        <v>2734.93649146717</v>
+        <v>2734.936491467169</v>
       </c>
       <c r="R26" t="n">
-        <v>2766.304371953159</v>
+        <v>2766.304371953158</v>
       </c>
       <c r="S26" t="n">
         <v>2718.278735061233</v>
@@ -6257,7 +6257,7 @@
         <v>2646.707063508979</v>
       </c>
       <c r="U26" t="n">
-        <v>2544.422757287607</v>
+        <v>2544.422757287606</v>
       </c>
       <c r="V26" t="n">
         <v>2364.919526790957</v>
@@ -6266,7 +6266,7 @@
         <v>2163.710528367764</v>
       </c>
       <c r="X26" t="n">
-        <v>1941.804426953606</v>
+        <v>1941.804426953605</v>
       </c>
       <c r="Y26" t="n">
         <v>1703.224751824715</v>
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>674.0108546177786</v>
+        <v>822.9452642790299</v>
       </c>
       <c r="C27" t="n">
-        <v>499.5578253366515</v>
+        <v>648.4922349979029</v>
       </c>
       <c r="D27" t="n">
         <v>499.5578253366515</v>
@@ -6294,16 +6294,16 @@
         <v>193.785812358081</v>
       </c>
       <c r="G27" t="n">
-        <v>55.32608743906319</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="H27" t="n">
-        <v>55.32608743906319</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I27" t="n">
-        <v>55.32608743906319</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J27" t="n">
-        <v>79.69031420235049</v>
+        <v>79.69031420235046</v>
       </c>
       <c r="K27" t="n">
         <v>247.9535015325613</v>
@@ -6327,28 +6327,28 @@
         <v>1985.558603119544</v>
       </c>
       <c r="R27" t="n">
-        <v>1985.558603119544</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S27" t="n">
-        <v>1968.736488270567</v>
+        <v>1732.839313620732</v>
       </c>
       <c r="T27" t="n">
-        <v>1767.642618883714</v>
+        <v>1683.305101080801</v>
       </c>
       <c r="U27" t="n">
-        <v>1539.436836179206</v>
+        <v>1455.099318376293</v>
       </c>
       <c r="V27" t="n">
-        <v>1360.515690489614</v>
+        <v>1219.94721014455</v>
       </c>
       <c r="W27" t="n">
-        <v>1257.837990608333</v>
+        <v>1117.26951026327</v>
       </c>
       <c r="X27" t="n">
-        <v>1049.9864904028</v>
+        <v>1060.977666904658</v>
       </c>
       <c r="Y27" t="n">
-        <v>842.2261916378466</v>
+        <v>991.1606012990978</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.4746660332715</v>
+        <v>92.73818863237895</v>
       </c>
       <c r="C28" t="n">
-        <v>82.09813995228576</v>
+        <v>75.36166255139327</v>
       </c>
       <c r="D28" t="n">
-        <v>83.51244133992296</v>
+        <v>75.36166255139327</v>
       </c>
       <c r="E28" t="n">
-        <v>83.51244133992296</v>
+        <v>78.93565920695727</v>
       </c>
       <c r="F28" t="n">
-        <v>83.51244133992296</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="G28" t="n">
-        <v>65.61152179998159</v>
+        <v>65.61152179998152</v>
       </c>
       <c r="H28" t="n">
-        <v>55.32608743906319</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I28" t="n">
-        <v>55.32608743906319</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J28" t="n">
         <v>127.1931552206159</v>
       </c>
       <c r="K28" t="n">
-        <v>131.0268630661591</v>
+        <v>279.5704827418266</v>
       </c>
       <c r="L28" t="n">
-        <v>191.4591238120017</v>
+        <v>350.4946526511906</v>
       </c>
       <c r="M28" t="n">
-        <v>282.7939791992221</v>
+        <v>424.6011214739967</v>
       </c>
       <c r="N28" t="n">
-        <v>360.5729782513771</v>
+        <v>502.3801205261517</v>
       </c>
       <c r="O28" t="n">
-        <v>564.9417969330115</v>
+        <v>706.7489392077861</v>
       </c>
       <c r="P28" t="n">
-        <v>737.7328362305429</v>
+        <v>730.99635882965</v>
       </c>
       <c r="Q28" t="n">
-        <v>819.6290322483337</v>
+        <v>812.8925548474408</v>
       </c>
       <c r="R28" t="n">
-        <v>802.3238603911274</v>
+        <v>795.5873829902345</v>
       </c>
       <c r="S28" t="n">
-        <v>731.5650228562228</v>
+        <v>724.8285454553298</v>
       </c>
       <c r="T28" t="n">
-        <v>653.8477216550035</v>
+        <v>647.1112442541107</v>
       </c>
       <c r="U28" t="n">
-        <v>516.2086349133002</v>
+        <v>509.4721575124075</v>
       </c>
       <c r="V28" t="n">
-        <v>413.0838035543345</v>
+        <v>406.3473261534418</v>
       </c>
       <c r="W28" t="n">
-        <v>275.2262903642951</v>
+        <v>268.4898129634024</v>
       </c>
       <c r="X28" t="n">
-        <v>198.796396313199</v>
+        <v>192.0599189123063</v>
       </c>
       <c r="Y28" t="n">
-        <v>129.56347401659</v>
+        <v>122.8269966156974</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1468.184568607514</v>
+        <v>1468.184568607515</v>
       </c>
       <c r="C29" t="n">
         <v>1250.781708514024</v>
       </c>
       <c r="D29" t="n">
-        <v>1044.075666754194</v>
+        <v>1044.075666754195</v>
       </c>
       <c r="E29" t="n">
-        <v>809.8470710028714</v>
+        <v>809.8470710028721</v>
       </c>
       <c r="F29" t="n">
-        <v>550.4208230601851</v>
+        <v>550.4208230601857</v>
       </c>
       <c r="G29" t="n">
-        <v>282.9894504754843</v>
+        <v>282.989450475485</v>
       </c>
       <c r="H29" t="n">
-        <v>96.83435691450498</v>
+        <v>96.83435691450501</v>
       </c>
       <c r="I29" t="n">
-        <v>55.32608743906319</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="J29" t="n">
         <v>234.1884011210063</v>
       </c>
       <c r="K29" t="n">
-        <v>548.9166880491198</v>
+        <v>548.91668804912</v>
       </c>
       <c r="L29" t="n">
         <v>955.9037100471601</v>
       </c>
       <c r="M29" t="n">
-        <v>1408.621956991902</v>
+        <v>1408.621956991901</v>
       </c>
       <c r="N29" t="n">
         <v>1851.630069864826</v>
@@ -6479,7 +6479,7 @@
         <v>2233.040522606063</v>
       </c>
       <c r="P29" t="n">
-        <v>2542.656213831069</v>
+        <v>2542.656213831068</v>
       </c>
       <c r="Q29" t="n">
         <v>2734.936491467169</v>
@@ -6497,10 +6497,10 @@
         <v>2544.422757287607</v>
       </c>
       <c r="V29" t="n">
-        <v>2364.919526790957</v>
+        <v>2364.919526790958</v>
       </c>
       <c r="W29" t="n">
-        <v>2163.710528367764</v>
+        <v>2163.710528367765</v>
       </c>
       <c r="X29" t="n">
         <v>1941.804426953606</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>685.0020311196363</v>
+        <v>527.4762966446635</v>
       </c>
       <c r="C30" t="n">
-        <v>662.1086586854304</v>
+        <v>353.0232673635365</v>
       </c>
       <c r="D30" t="n">
-        <v>513.1742490241792</v>
+        <v>353.0232673635365</v>
       </c>
       <c r="E30" t="n">
-        <v>353.9367940187237</v>
+        <v>193.785812358081</v>
       </c>
       <c r="F30" t="n">
-        <v>353.9367940187237</v>
+        <v>193.785812358081</v>
       </c>
       <c r="G30" t="n">
-        <v>247.0426495007256</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="H30" t="n">
-        <v>136.2917739846352</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="I30" t="n">
-        <v>55.32608743906319</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="J30" t="n">
         <v>79.69031420235049</v>
@@ -6570,22 +6570,22 @@
         <v>1732.839313620732</v>
       </c>
       <c r="T30" t="n">
-        <v>1683.305101080801</v>
+        <v>1531.74544423388</v>
       </c>
       <c r="U30" t="n">
-        <v>1455.099318376293</v>
+        <v>1303.539661529372</v>
       </c>
       <c r="V30" t="n">
         <v>1219.94721014455</v>
       </c>
       <c r="W30" t="n">
-        <v>1117.26951026327</v>
+        <v>1111.303432635218</v>
       </c>
       <c r="X30" t="n">
-        <v>909.4180100577371</v>
+        <v>903.4519324296855</v>
       </c>
       <c r="Y30" t="n">
-        <v>853.2173681397044</v>
+        <v>695.6916336647316</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.47466603327128</v>
+        <v>92.73818863237895</v>
       </c>
       <c r="C31" t="n">
-        <v>82.09813995228559</v>
+        <v>75.36166255139327</v>
       </c>
       <c r="D31" t="n">
-        <v>83.51244133992284</v>
+        <v>75.36166255139327</v>
       </c>
       <c r="E31" t="n">
-        <v>83.51244133992284</v>
+        <v>78.93565920695727</v>
       </c>
       <c r="F31" t="n">
-        <v>83.51244133992284</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="G31" t="n">
-        <v>65.61152179998153</v>
+        <v>65.61152179998152</v>
       </c>
       <c r="H31" t="n">
-        <v>55.32608743906319</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="I31" t="n">
-        <v>56.67269700900454</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="J31" t="n">
-        <v>56.67269700900454</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="K31" t="n">
-        <v>60.50640485454773</v>
+        <v>59.15979528460637</v>
       </c>
       <c r="L31" t="n">
-        <v>269.4822852760578</v>
+        <v>119.592056030449</v>
       </c>
       <c r="M31" t="n">
-        <v>492.1323737745314</v>
+        <v>276.0575017983292</v>
       </c>
       <c r="N31" t="n">
-        <v>569.9113728266864</v>
+        <v>502.3801205261516</v>
       </c>
       <c r="O31" t="n">
-        <v>625.7365718326532</v>
+        <v>558.2053195321186</v>
       </c>
       <c r="P31" t="n">
-        <v>798.5276111301847</v>
+        <v>730.99635882965</v>
       </c>
       <c r="Q31" t="n">
-        <v>819.6290322483331</v>
+        <v>812.8925548474408</v>
       </c>
       <c r="R31" t="n">
-        <v>802.3238603911268</v>
+        <v>795.5873829902345</v>
       </c>
       <c r="S31" t="n">
-        <v>731.5650228562223</v>
+        <v>724.8285454553298</v>
       </c>
       <c r="T31" t="n">
-        <v>653.8477216550032</v>
+        <v>647.1112442541107</v>
       </c>
       <c r="U31" t="n">
-        <v>516.2086349132999</v>
+        <v>509.4721575124075</v>
       </c>
       <c r="V31" t="n">
-        <v>413.0838035543342</v>
+        <v>406.3473261534418</v>
       </c>
       <c r="W31" t="n">
-        <v>275.2262903642948</v>
+        <v>268.4898129634024</v>
       </c>
       <c r="X31" t="n">
-        <v>198.7963963131986</v>
+        <v>192.0599189123063</v>
       </c>
       <c r="Y31" t="n">
-        <v>129.5634740165897</v>
+        <v>122.8269966156974</v>
       </c>
     </row>
     <row r="32">
@@ -6680,46 +6680,46 @@
         <v>1250.781708514025</v>
       </c>
       <c r="D32" t="n">
-        <v>1044.075666754196</v>
+        <v>1044.075666754195</v>
       </c>
       <c r="E32" t="n">
-        <v>809.8470710028726</v>
+        <v>809.8470710028721</v>
       </c>
       <c r="F32" t="n">
-        <v>550.4208230601861</v>
+        <v>550.4208230601856</v>
       </c>
       <c r="G32" t="n">
-        <v>282.9894504754851</v>
+        <v>282.9894504754848</v>
       </c>
       <c r="H32" t="n">
-        <v>96.83435691450504</v>
+        <v>96.83435691450509</v>
       </c>
       <c r="I32" t="n">
-        <v>55.32608743906319</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="J32" t="n">
-        <v>234.1884011210062</v>
+        <v>234.1884011210061</v>
       </c>
       <c r="K32" t="n">
-        <v>548.9166880491196</v>
+        <v>548.9166880491207</v>
       </c>
       <c r="L32" t="n">
-        <v>955.9037100471596</v>
+        <v>955.9037100471608</v>
       </c>
       <c r="M32" t="n">
-        <v>1408.621956991901</v>
+        <v>1408.621956991902</v>
       </c>
       <c r="N32" t="n">
-        <v>1851.630069864825</v>
+        <v>1851.630069864826</v>
       </c>
       <c r="O32" t="n">
-        <v>2233.040522606063</v>
+        <v>2233.040522606064</v>
       </c>
       <c r="P32" t="n">
-        <v>2542.656213831068</v>
+        <v>2542.656213831069</v>
       </c>
       <c r="Q32" t="n">
-        <v>2734.936491467168</v>
+        <v>2734.936491467169</v>
       </c>
       <c r="R32" t="n">
         <v>2766.304371953159</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>765.451225905584</v>
+        <v>633.202073286948</v>
       </c>
       <c r="C33" t="n">
-        <v>590.998196624457</v>
+        <v>610.308700852742</v>
       </c>
       <c r="D33" t="n">
-        <v>442.0637869632057</v>
+        <v>610.308700852742</v>
       </c>
       <c r="E33" t="n">
-        <v>282.8263319577502</v>
+        <v>451.0712458472866</v>
       </c>
       <c r="F33" t="n">
-        <v>136.2917739846352</v>
+        <v>304.5366878741715</v>
       </c>
       <c r="G33" t="n">
-        <v>136.2917739846352</v>
+        <v>166.0769629551537</v>
       </c>
       <c r="H33" t="n">
-        <v>136.2917739846352</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="I33" t="n">
-        <v>55.32608743906319</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="J33" t="n">
         <v>79.69031420235049</v>
@@ -6801,28 +6801,28 @@
         <v>1985.558603119544</v>
       </c>
       <c r="R33" t="n">
-        <v>1981.670280102579</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S33" t="n">
-        <v>1964.848165253601</v>
+        <v>1732.839313620732</v>
       </c>
       <c r="T33" t="n">
-        <v>1763.754295866748</v>
+        <v>1531.74544423388</v>
       </c>
       <c r="U33" t="n">
-        <v>1535.548513162241</v>
+        <v>1403.299360543605</v>
       </c>
       <c r="V33" t="n">
-        <v>1451.956061777419</v>
+        <v>1168.147252311862</v>
       </c>
       <c r="W33" t="n">
-        <v>1349.278361896139</v>
+        <v>913.9098955836606</v>
       </c>
       <c r="X33" t="n">
-        <v>1141.426861690606</v>
+        <v>706.0583953781278</v>
       </c>
       <c r="Y33" t="n">
-        <v>933.666562925652</v>
+        <v>649.857753460095</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.8889674209087</v>
+        <v>91.32388724474237</v>
       </c>
       <c r="C34" t="n">
-        <v>83.51244133992296</v>
+        <v>73.94736116375657</v>
       </c>
       <c r="D34" t="n">
-        <v>83.51244133992296</v>
+        <v>75.36166255139371</v>
       </c>
       <c r="E34" t="n">
-        <v>83.51244133992296</v>
+        <v>78.93565920695761</v>
       </c>
       <c r="F34" t="n">
-        <v>83.51244133992296</v>
+        <v>83.51244133992306</v>
       </c>
       <c r="G34" t="n">
-        <v>65.61152179998159</v>
+        <v>65.61152179998163</v>
       </c>
       <c r="H34" t="n">
-        <v>55.32608743906319</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="I34" t="n">
-        <v>55.32608743906319</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="J34" t="n">
-        <v>55.32608743906319</v>
+        <v>69.6233393386255</v>
       </c>
       <c r="K34" t="n">
-        <v>207.7034149602738</v>
+        <v>73.45704718416869</v>
       </c>
       <c r="L34" t="n">
-        <v>358.6454314397208</v>
+        <v>282.4329276056787</v>
       </c>
       <c r="M34" t="n">
-        <v>432.7519002625269</v>
+        <v>356.5393964284848</v>
       </c>
       <c r="N34" t="n">
-        <v>510.5308993146818</v>
+        <v>582.8620151563071</v>
       </c>
       <c r="O34" t="n">
-        <v>714.8997179963162</v>
+        <v>787.2308338379413</v>
       </c>
       <c r="P34" t="n">
-        <v>739.1471376181802</v>
+        <v>811.4782534598053</v>
       </c>
       <c r="Q34" t="n">
-        <v>821.043333635971</v>
+        <v>811.4782534598053</v>
       </c>
       <c r="R34" t="n">
-        <v>803.7381617787646</v>
+        <v>794.1730816025988</v>
       </c>
       <c r="S34" t="n">
-        <v>732.97932424386</v>
+        <v>723.4142440676941</v>
       </c>
       <c r="T34" t="n">
-        <v>655.2620230426407</v>
+        <v>645.6969428664748</v>
       </c>
       <c r="U34" t="n">
-        <v>517.6229363009375</v>
+        <v>508.0578561247715</v>
       </c>
       <c r="V34" t="n">
-        <v>414.4981049419717</v>
+        <v>404.9330247658057</v>
       </c>
       <c r="W34" t="n">
-        <v>276.6405917519323</v>
+        <v>267.0755115757662</v>
       </c>
       <c r="X34" t="n">
-        <v>200.2106977008362</v>
+        <v>190.6456175246699</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.9777754042272</v>
+        <v>121.412695228061</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>872.4784887810895</v>
+        <v>872.4784887810902</v>
       </c>
       <c r="C35" t="n">
-        <v>743.2932336852414</v>
+        <v>743.2932336852419</v>
       </c>
       <c r="D35" t="n">
-        <v>624.8047969230545</v>
+        <v>624.8047969230551</v>
       </c>
       <c r="E35" t="n">
-        <v>478.7938061693739</v>
+        <v>478.7938061693744</v>
       </c>
       <c r="F35" t="n">
-        <v>307.5851632243298</v>
+        <v>307.5851632243305</v>
       </c>
       <c r="G35" t="n">
-        <v>128.3713956372717</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H35" t="n">
         <v>30.43390707393399</v>
@@ -6935,7 +6935,7 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J35" t="n">
-        <v>60.75260108020956</v>
+        <v>60.75260108020955</v>
       </c>
       <c r="K35" t="n">
         <v>226.9372683326556</v>
@@ -6974,10 +6974,10 @@
         <v>1416.343026973963</v>
       </c>
       <c r="W35" t="n">
-        <v>1303.351633548412</v>
+        <v>1303.351633548413</v>
       </c>
       <c r="X35" t="n">
-        <v>1169.663137131896</v>
+        <v>1169.663137131897</v>
       </c>
       <c r="Y35" t="n">
         <v>1019.301067000648</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>759.8695497687398</v>
+        <v>270.6370486249615</v>
       </c>
       <c r="C36" t="n">
-        <v>585.4165204876128</v>
+        <v>270.6370486249615</v>
       </c>
       <c r="D36" t="n">
-        <v>585.4165204876128</v>
+        <v>270.6370486249615</v>
       </c>
       <c r="E36" t="n">
-        <v>426.1790654821574</v>
+        <v>111.399593619506</v>
       </c>
       <c r="F36" t="n">
-        <v>279.6445075090423</v>
+        <v>111.399593619506</v>
       </c>
       <c r="G36" t="n">
-        <v>141.1847825900245</v>
+        <v>111.399593619506</v>
       </c>
       <c r="H36" t="n">
-        <v>30.43390707393399</v>
+        <v>111.399593619506</v>
       </c>
       <c r="I36" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J36" t="n">
-        <v>54.7981338372213</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K36" t="n">
-        <v>223.0613211674321</v>
+        <v>119.7913802412349</v>
       </c>
       <c r="L36" t="n">
-        <v>510.7163377867617</v>
+        <v>119.7913802412349</v>
       </c>
       <c r="M36" t="n">
-        <v>887.3359378266948</v>
+        <v>496.4109802811681</v>
       </c>
       <c r="N36" t="n">
-        <v>887.3359378266948</v>
+        <v>873.0305803211013</v>
       </c>
       <c r="O36" t="n">
-        <v>1199.307472959206</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P36" t="n">
-        <v>1432.68906612202</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q36" t="n">
         <v>1521.6953536967</v>
       </c>
       <c r="R36" t="n">
-        <v>1437.357835893786</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S36" t="n">
-        <v>1268.976064197888</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T36" t="n">
-        <v>1268.976064197888</v>
+        <v>1320.601484309847</v>
       </c>
       <c r="U36" t="n">
-        <v>1268.976064197888</v>
+        <v>1092.395701605339</v>
       </c>
       <c r="V36" t="n">
-        <v>1268.976064197888</v>
+        <v>940.4862043236499</v>
       </c>
       <c r="W36" t="n">
-        <v>1014.738707469686</v>
+        <v>686.2488475954483</v>
       </c>
       <c r="X36" t="n">
-        <v>1014.738707469686</v>
+        <v>478.3973473899154</v>
       </c>
       <c r="Y36" t="n">
-        <v>806.9784087047321</v>
+        <v>270.6370486249615</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>192.2789982817736</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="C37" t="n">
-        <v>192.2789982817736</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="D37" t="n">
-        <v>192.2789982817736</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E37" t="n">
-        <v>192.2789982817736</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F37" t="n">
-        <v>192.2789982817736</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G37" t="n">
-        <v>192.2789982817736</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H37" t="n">
         <v>30.43390707393399</v>
@@ -7096,10 +7096,10 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K37" t="n">
-        <v>34.26761491947719</v>
+        <v>34.26761491947718</v>
       </c>
       <c r="L37" t="n">
-        <v>94.69987566531981</v>
+        <v>94.69987566531979</v>
       </c>
       <c r="M37" t="n">
         <v>168.8063444881259</v>
@@ -7126,19 +7126,19 @@
         <v>326.6579621681117</v>
       </c>
       <c r="U37" t="n">
-        <v>277.2364804240507</v>
+        <v>94.98104162765436</v>
       </c>
       <c r="V37" t="n">
-        <v>262.3292540627274</v>
+        <v>80.07381526633105</v>
       </c>
       <c r="W37" t="n">
-        <v>212.6893458703303</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="X37" t="n">
-        <v>212.6893458703303</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="Y37" t="n">
-        <v>212.6893458703303</v>
+        <v>30.43390707393399</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>872.4784887810899</v>
+        <v>872.4784887810897</v>
       </c>
       <c r="C38" t="n">
-        <v>743.2932336852418</v>
+        <v>743.2932336852415</v>
       </c>
       <c r="D38" t="n">
-        <v>624.8047969230549</v>
+        <v>624.8047969230547</v>
       </c>
       <c r="E38" t="n">
         <v>478.7938061693742</v>
@@ -7163,34 +7163,34 @@
         <v>307.5851632243302</v>
       </c>
       <c r="G38" t="n">
-        <v>128.3713956372717</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H38" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I38" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J38" t="n">
-        <v>60.75260108020984</v>
+        <v>60.75260108020962</v>
       </c>
       <c r="K38" t="n">
-        <v>226.9372683326558</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L38" t="n">
-        <v>485.3806706550286</v>
+        <v>485.3806706550283</v>
       </c>
       <c r="M38" t="n">
-        <v>789.5552979241025</v>
+        <v>789.5552979241024</v>
       </c>
       <c r="N38" t="n">
-        <v>1084.01979112136</v>
+        <v>1084.019791121359</v>
       </c>
       <c r="O38" t="n">
-        <v>1316.88662418693</v>
+        <v>1316.886624186929</v>
       </c>
       <c r="P38" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q38" t="n">
         <v>1521.6953536967</v>
@@ -7227,49 +7227,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>659.5933589948828</v>
+        <v>179.3683167351853</v>
       </c>
       <c r="C39" t="n">
-        <v>485.1403297137558</v>
+        <v>179.3683167351853</v>
       </c>
       <c r="D39" t="n">
-        <v>336.2059200525046</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E39" t="n">
-        <v>176.968465047049</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F39" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G39" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H39" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I39" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J39" t="n">
-        <v>30.433907073934</v>
+        <v>54.7981338372213</v>
       </c>
       <c r="K39" t="n">
-        <v>198.6970944041448</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L39" t="n">
-        <v>486.3521110234744</v>
+        <v>510.7163377867617</v>
       </c>
       <c r="M39" t="n">
-        <v>862.9717110634076</v>
+        <v>887.3359378266948</v>
       </c>
       <c r="N39" t="n">
-        <v>1185.002115453613</v>
+        <v>976.342225401374</v>
       </c>
       <c r="O39" t="n">
-        <v>1185.002115453613</v>
+        <v>1288.313760533885</v>
       </c>
       <c r="P39" t="n">
-        <v>1418.383708616427</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="Q39" t="n">
         <v>1521.6953536967</v>
@@ -7278,25 +7278,25 @@
         <v>1521.6953536967</v>
       </c>
       <c r="S39" t="n">
-        <v>1486.366268722717</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="T39" t="n">
-        <v>1285.272399335864</v>
+        <v>1152.219712613948</v>
       </c>
       <c r="U39" t="n">
-        <v>1285.272399335864</v>
+        <v>924.0139299094404</v>
       </c>
       <c r="V39" t="n">
-        <v>1050.120291104122</v>
+        <v>809.6725106889878</v>
       </c>
       <c r="W39" t="n">
-        <v>1035.660196220484</v>
+        <v>555.4351539607861</v>
       </c>
       <c r="X39" t="n">
-        <v>827.8086960149508</v>
+        <v>347.5836537552533</v>
       </c>
       <c r="Y39" t="n">
-        <v>827.8086960149508</v>
+        <v>347.5836537552533</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="C40" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="D40" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E40" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F40" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G40" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H40" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I40" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J40" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K40" t="n">
-        <v>34.26761491947719</v>
+        <v>34.26761491947718</v>
       </c>
       <c r="L40" t="n">
-        <v>94.69987566531981</v>
+        <v>94.69987566531979</v>
       </c>
       <c r="M40" t="n">
         <v>168.8063444881259</v>
@@ -7357,25 +7357,25 @@
         <v>326.6579621681117</v>
       </c>
       <c r="S40" t="n">
-        <v>326.6579621681117</v>
+        <v>144.4025233717153</v>
       </c>
       <c r="T40" t="n">
-        <v>326.6579621681117</v>
+        <v>144.4025233717153</v>
       </c>
       <c r="U40" t="n">
-        <v>277.2364804240507</v>
+        <v>94.98104162765436</v>
       </c>
       <c r="V40" t="n">
-        <v>262.3292540627274</v>
+        <v>80.07381526633105</v>
       </c>
       <c r="W40" t="n">
-        <v>212.6893458703303</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="X40" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="Y40" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>976.4306445829033</v>
+        <v>976.4306445829042</v>
       </c>
       <c r="C41" t="n">
-        <v>830.5994560416667</v>
+        <v>830.5994560416675</v>
       </c>
       <c r="D41" t="n">
-        <v>695.4650858340914</v>
+        <v>695.4650858340921</v>
       </c>
       <c r="E41" t="n">
-        <v>532.8081616350223</v>
+        <v>532.8081616350229</v>
       </c>
       <c r="F41" t="n">
-        <v>344.9535852445899</v>
+        <v>344.9535852445904</v>
       </c>
       <c r="G41" t="n">
-        <v>149.0938842121429</v>
+        <v>149.093884212143</v>
       </c>
       <c r="H41" t="n">
-        <v>34.51046220341686</v>
+        <v>34.5104622034169</v>
       </c>
       <c r="I41" t="n">
-        <v>63.97560257890041</v>
+        <v>34.5104622034169</v>
       </c>
       <c r="J41" t="n">
-        <v>94.29429658517597</v>
+        <v>64.82915620969246</v>
       </c>
       <c r="K41" t="n">
-        <v>430.765024806799</v>
+        <v>231.0138234621385</v>
       </c>
       <c r="L41" t="n">
-        <v>689.2084271291717</v>
+        <v>489.4572257845112</v>
       </c>
       <c r="M41" t="n">
-        <v>993.3830543982457</v>
+        <v>793.6318530535852</v>
       </c>
       <c r="N41" t="n">
-        <v>1287.847547595502</v>
+        <v>1088.096346250842</v>
       </c>
       <c r="O41" t="n">
-        <v>1520.714380661073</v>
+        <v>1320.963179316412</v>
       </c>
       <c r="P41" t="n">
-        <v>1681.78645221041</v>
+        <v>1580.271176436058</v>
       </c>
       <c r="Q41" t="n">
-        <v>1725.523110170843</v>
+        <v>1624.007834396491</v>
       </c>
       <c r="R41" t="n">
-        <v>1725.523110170843</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="S41" t="n">
-        <v>1725.523110170843</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="T41" t="n">
-        <v>1725.523110170843</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="U41" t="n">
-        <v>1694.810475501726</v>
+        <v>1694.810475501727</v>
       </c>
       <c r="V41" t="n">
-        <v>1586.87891655733</v>
+        <v>1586.878916557331</v>
       </c>
       <c r="W41" t="n">
-        <v>1457.241589686391</v>
+        <v>1457.241589686392</v>
       </c>
       <c r="X41" t="n">
-        <v>1306.907159824487</v>
+        <v>1306.907159824488</v>
       </c>
       <c r="Y41" t="n">
-        <v>1139.89915624785</v>
+        <v>1139.899156247851</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>802.1296390433835</v>
+        <v>446.1381855281602</v>
       </c>
       <c r="C42" t="n">
-        <v>627.6766097622565</v>
+        <v>271.6851562470332</v>
       </c>
       <c r="D42" t="n">
-        <v>478.7422001010053</v>
+        <v>122.7507465857819</v>
       </c>
       <c r="E42" t="n">
-        <v>319.5047450955498</v>
+        <v>34.5104622034169</v>
       </c>
       <c r="F42" t="n">
-        <v>172.9701871224347</v>
+        <v>34.5104622034169</v>
       </c>
       <c r="G42" t="n">
-        <v>34.51046220341686</v>
+        <v>34.5104622034169</v>
       </c>
       <c r="H42" t="n">
-        <v>34.51046220341686</v>
+        <v>34.5104622034169</v>
       </c>
       <c r="I42" t="n">
-        <v>34.51046220341686</v>
+        <v>34.5104622034169</v>
       </c>
       <c r="J42" t="n">
-        <v>34.51046220341686</v>
+        <v>58.87468896670421</v>
       </c>
       <c r="K42" t="n">
-        <v>202.7736495336277</v>
+        <v>227.137876296915</v>
       </c>
       <c r="L42" t="n">
-        <v>275.5730252031897</v>
+        <v>514.7928929162446</v>
       </c>
       <c r="M42" t="n">
-        <v>663.2320834276524</v>
+        <v>902.4519511407073</v>
       </c>
       <c r="N42" t="n">
-        <v>1076.858336795245</v>
+        <v>1076.858336795246</v>
       </c>
       <c r="O42" t="n">
-        <v>1388.829871927756</v>
+        <v>1388.829871927758</v>
       </c>
       <c r="P42" t="n">
-        <v>1622.211465090571</v>
+        <v>1622.211465090572</v>
       </c>
       <c r="Q42" t="n">
-        <v>1725.523110170843</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="R42" t="n">
-        <v>1725.523110170843</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="S42" t="n">
-        <v>1725.523110170843</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.429240783991</v>
+        <v>1524.429240783992</v>
       </c>
       <c r="U42" t="n">
-        <v>1296.223458079483</v>
+        <v>1519.354786478659</v>
       </c>
       <c r="V42" t="n">
-        <v>1061.07134984774</v>
+        <v>1284.202678246917</v>
       </c>
       <c r="W42" t="n">
-        <v>806.8339931195385</v>
+        <v>1029.965321518715</v>
       </c>
       <c r="X42" t="n">
-        <v>806.8339931195385</v>
+        <v>822.1138213131821</v>
       </c>
       <c r="Y42" t="n">
-        <v>802.1296390433835</v>
+        <v>614.3535225482283</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.8242485158406</v>
+        <v>34.5104622034169</v>
       </c>
       <c r="C43" t="n">
-        <v>155.8242485158406</v>
+        <v>34.5104622034169</v>
       </c>
       <c r="D43" t="n">
-        <v>155.8242485158406</v>
+        <v>34.5104622034169</v>
       </c>
       <c r="E43" t="n">
-        <v>155.8242485158406</v>
+        <v>34.5104622034169</v>
       </c>
       <c r="F43" t="n">
-        <v>155.8242485158406</v>
+        <v>34.5104622034169</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8242485158406</v>
+        <v>34.5104622034169</v>
       </c>
       <c r="H43" t="n">
-        <v>34.51046220341686</v>
+        <v>34.5104622034169</v>
       </c>
       <c r="I43" t="n">
-        <v>34.51046220341686</v>
+        <v>34.5104622034169</v>
       </c>
       <c r="J43" t="n">
-        <v>34.51046220341686</v>
+        <v>34.5104622034169</v>
       </c>
       <c r="K43" t="n">
-        <v>38.34417004896006</v>
+        <v>38.34417004896009</v>
       </c>
       <c r="L43" t="n">
-        <v>98.77643079480268</v>
+        <v>98.77643079480271</v>
       </c>
       <c r="M43" t="n">
         <v>172.8828996176088</v>
       </c>
       <c r="N43" t="n">
-        <v>250.6618986697637</v>
+        <v>250.6618986697638</v>
       </c>
       <c r="O43" t="n">
         <v>306.4870976757306</v>
       </c>
       <c r="P43" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975947</v>
       </c>
       <c r="Q43" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975947</v>
       </c>
       <c r="R43" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975947</v>
       </c>
       <c r="S43" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975947</v>
       </c>
       <c r="T43" t="n">
         <v>324.5888876486294</v>
       </c>
       <c r="U43" t="n">
-        <v>258.52147245918</v>
+        <v>137.2076861467565</v>
       </c>
       <c r="V43" t="n">
-        <v>226.9683126524683</v>
+        <v>105.6545263400447</v>
       </c>
       <c r="W43" t="n">
-        <v>160.6824710146828</v>
+        <v>39.36868470225915</v>
       </c>
       <c r="X43" t="n">
-        <v>155.8242485158406</v>
+        <v>34.5104622034169</v>
       </c>
       <c r="Y43" t="n">
-        <v>155.8242485158406</v>
+        <v>34.5104622034169</v>
       </c>
     </row>
     <row r="44">
@@ -7622,73 +7622,73 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>976.4306445829028</v>
+        <v>976.4306445829034</v>
       </c>
       <c r="C44" t="n">
-        <v>830.5994560416661</v>
+        <v>830.5994560416668</v>
       </c>
       <c r="D44" t="n">
-        <v>695.4650858340908</v>
+        <v>695.4650858340915</v>
       </c>
       <c r="E44" t="n">
-        <v>532.8081616350222</v>
+        <v>532.8081616350223</v>
       </c>
       <c r="F44" t="n">
         <v>344.9535852445897</v>
       </c>
       <c r="G44" t="n">
-        <v>149.093884212143</v>
+        <v>149.0938842121431</v>
       </c>
       <c r="H44" t="n">
-        <v>34.51046220341686</v>
+        <v>34.5104622034169</v>
       </c>
       <c r="I44" t="n">
-        <v>34.51046220341686</v>
+        <v>40.06152684636525</v>
       </c>
       <c r="J44" t="n">
-        <v>64.82915620969243</v>
+        <v>70.3802208526408</v>
       </c>
       <c r="K44" t="n">
-        <v>231.0138234621385</v>
+        <v>236.5648881050869</v>
       </c>
       <c r="L44" t="n">
-        <v>489.4572257845111</v>
+        <v>495.0082904274595</v>
       </c>
       <c r="M44" t="n">
-        <v>793.6318530535851</v>
+        <v>799.1829176965335</v>
       </c>
       <c r="N44" t="n">
-        <v>1088.096346250842</v>
+        <v>1093.64741089379</v>
       </c>
       <c r="O44" t="n">
-        <v>1320.963179316412</v>
+        <v>1520.714380661074</v>
       </c>
       <c r="P44" t="n">
-        <v>1681.78645221041</v>
+        <v>1681.786452210412</v>
       </c>
       <c r="Q44" t="n">
-        <v>1725.523110170843</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="R44" t="n">
-        <v>1725.523110170843</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="S44" t="n">
-        <v>1725.523110170843</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="T44" t="n">
-        <v>1725.523110170843</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="U44" t="n">
-        <v>1694.810475501725</v>
+        <v>1694.810475501727</v>
       </c>
       <c r="V44" t="n">
-        <v>1586.87891655733</v>
+        <v>1586.878916557331</v>
       </c>
       <c r="W44" t="n">
-        <v>1457.241589686391</v>
+        <v>1457.241589686392</v>
       </c>
       <c r="X44" t="n">
-        <v>1306.907159824486</v>
+        <v>1306.907159824487</v>
       </c>
       <c r="Y44" t="n">
         <v>1139.89915624785</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>530.0160047453135</v>
+        <v>655.5950810702685</v>
       </c>
       <c r="C45" t="n">
-        <v>489.2168848432386</v>
+        <v>481.1420517891415</v>
       </c>
       <c r="D45" t="n">
-        <v>340.2824751819874</v>
+        <v>332.2076421278903</v>
       </c>
       <c r="E45" t="n">
-        <v>181.0450201765319</v>
+        <v>172.9701871224348</v>
       </c>
       <c r="F45" t="n">
-        <v>34.51046220341686</v>
+        <v>172.9701871224348</v>
       </c>
       <c r="G45" t="n">
-        <v>34.51046220341686</v>
+        <v>34.5104622034169</v>
       </c>
       <c r="H45" t="n">
-        <v>34.51046220341686</v>
+        <v>34.5104622034169</v>
       </c>
       <c r="I45" t="n">
-        <v>34.51046220341686</v>
+        <v>34.5104622034169</v>
       </c>
       <c r="J45" t="n">
-        <v>58.87468896670417</v>
+        <v>34.5104622034169</v>
       </c>
       <c r="K45" t="n">
-        <v>227.137876296915</v>
+        <v>202.7736495336277</v>
       </c>
       <c r="L45" t="n">
-        <v>514.7928929162446</v>
+        <v>490.4286661529572</v>
       </c>
       <c r="M45" t="n">
-        <v>902.4519511407073</v>
+        <v>878.0877243774199</v>
       </c>
       <c r="N45" t="n">
-        <v>1316.0782045083</v>
+        <v>1291.713977745012</v>
       </c>
       <c r="O45" t="n">
-        <v>1388.829871927756</v>
+        <v>1603.685512877524</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.211465090571</v>
+        <v>1622.211465090572</v>
       </c>
       <c r="Q45" t="n">
-        <v>1725.523110170843</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="R45" t="n">
-        <v>1641.18559236793</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="S45" t="n">
-        <v>1641.18559236793</v>
+        <v>1557.141338474946</v>
       </c>
       <c r="T45" t="n">
-        <v>1440.091722981077</v>
+        <v>1356.047469088094</v>
       </c>
       <c r="U45" t="n">
-        <v>1211.885940276569</v>
+        <v>1350.973014782761</v>
       </c>
       <c r="V45" t="n">
-        <v>1199.865160444002</v>
+        <v>1115.820906551018</v>
       </c>
       <c r="W45" t="n">
-        <v>945.6278037158002</v>
+        <v>863.4465812758013</v>
       </c>
       <c r="X45" t="n">
-        <v>737.7763035102673</v>
+        <v>655.5950810702685</v>
       </c>
       <c r="Y45" t="n">
-        <v>530.0160047453135</v>
+        <v>655.5950810702685</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.51046220341686</v>
+        <v>34.5104622034169</v>
       </c>
       <c r="C46" t="n">
-        <v>34.51046220341686</v>
+        <v>34.5104622034169</v>
       </c>
       <c r="D46" t="n">
-        <v>34.51046220341686</v>
+        <v>34.5104622034169</v>
       </c>
       <c r="E46" t="n">
-        <v>34.51046220341686</v>
+        <v>34.5104622034169</v>
       </c>
       <c r="F46" t="n">
-        <v>34.51046220341686</v>
+        <v>34.5104622034169</v>
       </c>
       <c r="G46" t="n">
-        <v>34.51046220341686</v>
+        <v>34.5104622034169</v>
       </c>
       <c r="H46" t="n">
-        <v>34.51046220341686</v>
+        <v>34.5104622034169</v>
       </c>
       <c r="I46" t="n">
-        <v>34.51046220341686</v>
+        <v>34.5104622034169</v>
       </c>
       <c r="J46" t="n">
-        <v>34.51046220341686</v>
+        <v>34.5104622034169</v>
       </c>
       <c r="K46" t="n">
-        <v>38.34417004896006</v>
+        <v>38.34417004896009</v>
       </c>
       <c r="L46" t="n">
-        <v>98.77643079480268</v>
+        <v>98.77643079480271</v>
       </c>
       <c r="M46" t="n">
         <v>172.8828996176088</v>
       </c>
       <c r="N46" t="n">
-        <v>250.6618986697637</v>
+        <v>250.6618986697638</v>
       </c>
       <c r="O46" t="n">
         <v>306.4870976757306</v>
       </c>
       <c r="P46" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975947</v>
       </c>
       <c r="Q46" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975947</v>
       </c>
       <c r="R46" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975947</v>
       </c>
       <c r="S46" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975947</v>
       </c>
       <c r="T46" t="n">
         <v>324.5888876486293</v>
       </c>
       <c r="U46" t="n">
-        <v>258.5214724591799</v>
+        <v>137.2076861467568</v>
       </c>
       <c r="V46" t="n">
-        <v>226.9683126524681</v>
+        <v>105.6545263400449</v>
       </c>
       <c r="W46" t="n">
-        <v>160.6824710146826</v>
+        <v>39.36868470225927</v>
       </c>
       <c r="X46" t="n">
-        <v>155.8242485158403</v>
+        <v>34.5104622034169</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.51046220341686</v>
+        <v>34.5104622034169</v>
       </c>
     </row>
   </sheetData>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>94.50242152751716</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>274.8949934127968</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>454.5540958868389</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N12" t="n">
-        <v>441.9619164368269</v>
+        <v>61.53807801265199</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>304.012912573681</v>
       </c>
       <c r="Q12" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,19 +9003,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>80.32184786380846</v>
       </c>
       <c r="M15" t="n">
-        <v>454.5540958868388</v>
+        <v>454.5540958868387</v>
       </c>
       <c r="N15" t="n">
-        <v>71.6985520103226</v>
+        <v>441.9619164368268</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7220906850686</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>437.346924411984</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9249,10 +9249,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>454.5540958868388</v>
+        <v>454.5540958868387</v>
       </c>
       <c r="N18" t="n">
-        <v>71.6985520103226</v>
+        <v>61.53807801265199</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>195.6274316695927</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,7 +9486,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>254.253546945396</v>
+        <v>454.5540958868387</v>
       </c>
       <c r="N21" t="n">
         <v>441.9619164368269</v>
@@ -9495,10 +9495,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>222.5174167492744</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7220906850686</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9653,7 +9653,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714825</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9717,13 +9717,13 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K24" t="n">
-        <v>184.7624954338819</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>80.27972245565152</v>
+        <v>80.27972245565154</v>
       </c>
       <c r="M24" t="n">
-        <v>454.5540958868389</v>
+        <v>454.5540958868387</v>
       </c>
       <c r="N24" t="n">
         <v>441.9619164368269</v>
@@ -9732,7 +9732,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>238.7600270612401</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -10662,19 +10662,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>184.7624954338818</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>80.27972245565154</v>
       </c>
       <c r="M36" t="n">
         <v>454.5540958868388</v>
       </c>
       <c r="N36" t="n">
-        <v>61.53807801265198</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>195.627431669593</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,16 +10911,16 @@
         <v>454.5540958868388</v>
       </c>
       <c r="N39" t="n">
-        <v>386.8213147704352</v>
+        <v>151.4434189971764</v>
       </c>
       <c r="O39" t="n">
-        <v>78.73955651661683</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7220906850686</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,19 +11136,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>153.814445354199</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>237.7061443303684</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11388,10 +11388,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>152.2260892635428</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>101.4368686906785</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>222.9664405879704</v>
       </c>
       <c r="E11" t="n">
-        <v>250.2137690395491</v>
+        <v>250.2137690395492</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>141.5964517614715</v>
       </c>
       <c r="G11" t="n">
-        <v>283.084518104593</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>202.6210018711095</v>
+        <v>202.6210018711096</v>
       </c>
       <c r="I11" t="n">
-        <v>59.42064602642672</v>
+        <v>59.42064602642684</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>65.87283976874618</v>
       </c>
       <c r="T11" t="n">
-        <v>89.18341408247065</v>
+        <v>89.18341408247076</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>196.0356574374222</v>
+        <v>196.0356574374223</v>
       </c>
       <c r="W11" t="n">
-        <v>217.5243676847003</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>184.3481839522348</v>
+        <v>254.521337623341</v>
       </c>
     </row>
     <row r="12">
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>222.9664405879703</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>250.2137690395491</v>
       </c>
       <c r="F14" t="n">
-        <v>223.127628146268</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>283.084518104593</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>202.6210018711095</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>59.42064602642672</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.87283976874606</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>89.18341408247065</v>
       </c>
       <c r="U14" t="n">
-        <v>119.5889224048975</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>196.0356574374222</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>152.4877083368717</v>
       </c>
       <c r="Y14" t="n">
         <v>254.5213376233409</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-5.787486664675853e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>733816.2183910122</v>
+        <v>733816.2183910121</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>834117.5376187231</v>
+        <v>834117.5376187232</v>
       </c>
     </row>
     <row r="9">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>737348.7048453348</v>
+        <v>737348.7048453346</v>
       </c>
       <c r="C2" t="n">
-        <v>737348.7048453345</v>
+        <v>737348.7048453343</v>
       </c>
       <c r="D2" t="n">
-        <v>737348.7048453345</v>
+        <v>737348.7048453346</v>
       </c>
       <c r="E2" t="n">
-        <v>632736.1960485152</v>
+        <v>632736.196048515</v>
       </c>
       <c r="F2" t="n">
         <v>632736.196048515</v>
       </c>
       <c r="G2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778542</v>
       </c>
       <c r="H2" t="n">
-        <v>738937.592877854</v>
+        <v>738937.5928778542</v>
       </c>
       <c r="I2" t="n">
         <v>738937.5928778542</v>
       </c>
       <c r="J2" t="n">
-        <v>738937.5928778544</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="K2" t="n">
+        <v>738937.5928778547</v>
+      </c>
+      <c r="L2" t="n">
+        <v>738937.5928778549</v>
+      </c>
+      <c r="M2" t="n">
+        <v>738937.5928778541</v>
+      </c>
+      <c r="N2" t="n">
         <v>738937.5928778548</v>
       </c>
-      <c r="L2" t="n">
-        <v>738937.5928778548</v>
-      </c>
-      <c r="M2" t="n">
-        <v>738937.5928778542</v>
-      </c>
-      <c r="N2" t="n">
-        <v>738937.5928778546</v>
-      </c>
       <c r="O2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="P2" t="n">
         <v>738937.5928778551</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>319206.1449189903</v>
+        <v>319206.1449189902</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-11</v>
       </c>
       <c r="G3" t="n">
         <v>84530.31055472423</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>116916.0581612106</v>
+        <v>116916.0581612105</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>8.324124665497482e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>84530.31055472417</v>
+        <v>84530.31055472413</v>
       </c>
       <c r="M3" t="n">
-        <v>87131.09894239517</v>
+        <v>87131.09894239524</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26454,7 +26454,7 @@
         <v>369405.3002414156</v>
       </c>
       <c r="O4" t="n">
-        <v>368260.9042823385</v>
+        <v>368260.9042823386</v>
       </c>
       <c r="P4" t="n">
         <v>368260.9042823385</v>
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>36923.20336678314</v>
+        <v>36923.20336678313</v>
       </c>
       <c r="F5" t="n">
-        <v>36923.20336678314</v>
+        <v>36923.20336678313</v>
       </c>
       <c r="G5" t="n">
-        <v>45806.17671431453</v>
+        <v>45806.17671431452</v>
       </c>
       <c r="H5" t="n">
-        <v>45806.17671431453</v>
+        <v>45806.17671431452</v>
       </c>
       <c r="I5" t="n">
-        <v>45806.17671431453</v>
+        <v>45806.17671431452</v>
       </c>
       <c r="J5" t="n">
+        <v>57382.03161561136</v>
+      </c>
+      <c r="K5" t="n">
         <v>57382.03161561137</v>
       </c>
-      <c r="K5" t="n">
-        <v>57382.03161561138</v>
-      </c>
       <c r="L5" t="n">
-        <v>57382.03161561137</v>
+        <v>57382.03161561136</v>
       </c>
       <c r="M5" t="n">
         <v>45806.17671431452</v>
       </c>
       <c r="N5" t="n">
-        <v>45806.17671431453</v>
+        <v>45806.17671431452</v>
       </c>
       <c r="O5" t="n">
-        <v>47518.94570368934</v>
+        <v>47518.94570368936</v>
       </c>
       <c r="P5" t="n">
-        <v>47518.94570368934</v>
+        <v>47518.94570368936</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>272822.5954026589</v>
+        <v>272818.1818247907</v>
       </c>
       <c r="C6" t="n">
-        <v>272822.5954026587</v>
+        <v>272818.1818247903</v>
       </c>
       <c r="D6" t="n">
-        <v>272822.5954026587</v>
+        <v>272818.1818247907</v>
       </c>
       <c r="E6" t="n">
-        <v>-25682.26017682806</v>
+        <v>-25977.26405690955</v>
       </c>
       <c r="F6" t="n">
-        <v>293523.8847421621</v>
+        <v>293228.8808620806</v>
       </c>
       <c r="G6" t="n">
-        <v>239195.8053674003</v>
+        <v>239195.8053673999</v>
       </c>
       <c r="H6" t="n">
-        <v>323726.1159221239</v>
+        <v>323726.1159221241</v>
       </c>
       <c r="I6" t="n">
-        <v>323726.1159221241</v>
+        <v>323726.1159221242</v>
       </c>
       <c r="J6" t="n">
-        <v>196795.5876282967</v>
+        <v>196795.5876282971</v>
       </c>
       <c r="K6" t="n">
-        <v>313711.6457895078</v>
+        <v>313711.6457895075</v>
       </c>
       <c r="L6" t="n">
-        <v>229181.3352347836</v>
+        <v>229181.3352347839</v>
       </c>
       <c r="M6" t="n">
-        <v>236595.016979729</v>
+        <v>236595.0169797287</v>
       </c>
       <c r="N6" t="n">
-        <v>323726.1159221245</v>
+        <v>323726.1159221247</v>
       </c>
       <c r="O6" t="n">
-        <v>288573.5461567227</v>
+        <v>288573.5461567228</v>
       </c>
       <c r="P6" t="n">
         <v>323157.7428918272</v>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F2" t="n">
         <v>131.7166010327127</v>
@@ -26713,7 +26713,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="L2" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="M2" t="n">
         <v>237.3794892261179</v>
@@ -26722,10 +26722,10 @@
         <v>237.3794892261179</v>
       </c>
       <c r="O2" t="n">
-        <v>220.9000151151834</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="P2" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
     </row>
     <row r="3">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="F4" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="G4" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="H4" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="I4" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="J4" t="n">
-        <v>691.5760929882898</v>
+        <v>691.5760929882896</v>
       </c>
       <c r="K4" t="n">
-        <v>691.5760929882898</v>
+        <v>691.5760929882897</v>
       </c>
       <c r="L4" t="n">
-        <v>691.5760929882898</v>
+        <v>691.5760929882897</v>
       </c>
       <c r="M4" t="n">
         <v>380.4238384241749</v>
       </c>
       <c r="N4" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="O4" t="n">
-        <v>431.3807775427108</v>
+        <v>431.3807775427112</v>
       </c>
       <c r="P4" t="n">
-        <v>431.3807775427108</v>
+        <v>431.3807775427112</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="G2" t="n">
         <v>105.6628881934053</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.38117208504667</v>
+        <v>44.38117208504661</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>1.040515583187185e-13</v>
       </c>
       <c r="L2" t="n">
         <v>105.6628881934052</v>
       </c>
       <c r="M2" t="n">
-        <v>87.33542894766595</v>
+        <v>87.33542894766603</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.90169797411215</v>
+        <v>27.90169797411201</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>311.1522545641149</v>
+        <v>311.1522545641147</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>69.27158386006005</v>
+        <v>69.2715838600601</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>50.95693911853584</v>
+        <v>50.9569391185363</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="L2" t="n">
         <v>105.6628881934053</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.38117208504667</v>
+        <v>44.38117208504661</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>1.040515583187185e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="C11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="D11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="E11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="G11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="H11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="I11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>118.359332514826</v>
       </c>
       <c r="S11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="T11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="U11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="V11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="W11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="X11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="Y11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
     </row>
     <row r="12">
@@ -28166,22 +28166,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="C12" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="D12" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="E12" t="n">
-        <v>15.76699017642073</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F12" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>15.76699017642176</v>
       </c>
       <c r="H12" t="n">
         <v>109.6433667609296</v>
@@ -28220,16 +28220,16 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>131.7166010327127</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="C13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="D13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="E13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="G13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="H13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="J13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="L13" t="n">
-        <v>116.6552291119071</v>
+        <v>116.6552291119096</v>
       </c>
       <c r="M13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="N13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="O13" t="n">
-        <v>131.7166010327127</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="Q13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="R13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="S13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="T13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="U13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="V13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="W13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="X13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
     </row>
     <row r="14">
@@ -28369,7 +28369,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.268496584496461e-13</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>118.359332514826</v>
@@ -28403,13 +28403,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>99.26113280130558</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="E15" t="n">
         <v>131.7166010327127</v>
@@ -28418,7 +28418,7 @@
         <v>131.7166010327127</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="H15" t="n">
         <v>109.6433667609296</v>
@@ -28454,22 +28454,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>131.7166010327127</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>131.7166010327127</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>131.7166010327127</v>
       </c>
       <c r="W15" t="n">
-        <v>99.26113280130531</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>131.7166010327127</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>131.7166010327127</v>
@@ -28506,7 +28506,7 @@
         <v>131.7166010327127</v>
       </c>
       <c r="J16" t="n">
-        <v>131.7166010327127</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K16" t="n">
         <v>131.7166010327127</v>
@@ -28518,13 +28518,13 @@
         <v>131.7166010327127</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="O16" t="n">
+        <v>39.20416659259946</v>
+      </c>
+      <c r="P16" t="n">
         <v>131.7166010327127</v>
-      </c>
-      <c r="P16" t="n">
-        <v>116.6552291119072</v>
       </c>
       <c r="Q16" t="n">
         <v>131.7166010327127</v>
@@ -28640,16 +28640,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>34.48403167409683</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,25 +28691,25 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S18" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>88.40064840178816</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28740,10 +28740,10 @@
         <v>160.2266402957612</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>148.6838485916426</v>
       </c>
       <c r="J19" t="n">
-        <v>77.45106251930777</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.32062995745122</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R19" t="n">
         <v>167.1761804170862</v>
@@ -28776,7 +28776,7 @@
         <v>226.984188467659</v>
       </c>
       <c r="U19" t="n">
-        <v>205.630453409328</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V19" t="n">
         <v>237.379489226118</v>
@@ -28788,7 +28788,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>38.15176894366229</v>
       </c>
     </row>
     <row r="20">
@@ -28877,16 +28877,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -28895,10 +28895,10 @@
         <v>137.0751276698277</v>
       </c>
       <c r="H21" t="n">
-        <v>102.119127940003</v>
+        <v>73.50614433242936</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28937,7 +28937,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>237.379489226118</v>
@@ -28959,7 +28959,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -28968,7 +28968,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>132.2349847131266</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.7659706229939</v>
@@ -28980,7 +28980,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J22" t="n">
-        <v>77.45106251930777</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>67.32062995745122</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R22" t="n">
         <v>167.1761804170862</v>
@@ -29016,7 +29016,7 @@
         <v>237.379489226118</v>
       </c>
       <c r="V22" t="n">
-        <v>237.379489226118</v>
+        <v>56.94660481768543</v>
       </c>
       <c r="W22" t="n">
         <v>237.379489226118</v>
@@ -29092,7 +29092,7 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U23" t="n">
-        <v>237.3794892261172</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V23" t="n">
         <v>237.379489226118</v>
@@ -29120,22 +29120,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29165,13 +29165,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9237248774628</v>
+        <v>196.6633647209249</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -29180,10 +29180,10 @@
         <v>237.379489226118</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>31.15044009897369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29202,7 +29202,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -29217,7 +29217,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J25" t="n">
-        <v>77.45106251930777</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,13 +29238,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>67.32062995745122</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R25" t="n">
         <v>167.1761804170862</v>
       </c>
       <c r="S25" t="n">
-        <v>186.0963876761442</v>
+        <v>220.0953094380075</v>
       </c>
       <c r="T25" t="n">
         <v>226.984188467659</v>
@@ -29262,7 +29262,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>38.15176894366229</v>
       </c>
     </row>
     <row r="26">
@@ -29308,7 +29308,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="N26" t="n">
-        <v>150.0440602784535</v>
+        <v>150.044060278452</v>
       </c>
       <c r="O26" t="n">
         <v>150.044060278452</v>
@@ -29357,7 +29357,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>55.66865291672843</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>136.5638008277996</v>
       </c>
     </row>
     <row r="28">
@@ -29436,13 +29436,13 @@
         <v>150.044060278452</v>
       </c>
       <c r="D28" t="n">
+        <v>148.6154730182124</v>
+      </c>
+      <c r="E28" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="E28" t="n">
-        <v>146.4339626465692</v>
-      </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G28" t="n">
         <v>150.044060278452</v>
@@ -29457,13 +29457,13 @@
         <v>150.044060278452</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>10.59788804396101</v>
       </c>
       <c r="M28" t="n">
-        <v>17.40241067112555</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29472,7 +29472,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="P28" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>150.044060278452</v>
@@ -29591,10 +29591,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -29603,13 +29603,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>31.24992459700964</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29642,22 +29642,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
       <c r="W30" t="n">
-        <v>150.044060278452</v>
+        <v>144.1376434266809</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29673,13 +29673,13 @@
         <v>150.044060278452</v>
       </c>
       <c r="D31" t="n">
+        <v>148.6154730182124</v>
+      </c>
+      <c r="E31" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="E31" t="n">
-        <v>146.4339626465692</v>
-      </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G31" t="n">
         <v>150.044060278452</v>
@@ -29688,22 +29688,22 @@
         <v>150.044060278452</v>
       </c>
       <c r="I31" t="n">
+        <v>148.6838485916426</v>
+      </c>
+      <c r="J31" t="n">
+        <v>77.45106251930778</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>83.19088580310519</v>
+      </c>
+      <c r="N31" t="n">
         <v>150.044060278452</v>
-      </c>
-      <c r="J31" t="n">
-        <v>77.45106251930777</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>150.044060278452</v>
-      </c>
-      <c r="M31" t="n">
-        <v>150.044060278452</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -29712,7 +29712,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="Q31" t="n">
-        <v>88.63519674345974</v>
+        <v>150.044060278452</v>
       </c>
       <c r="R31" t="n">
         <v>150.044060278452</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="C32" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="D32" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="E32" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="F32" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="G32" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="H32" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="I32" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="J32" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="K32" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784531</v>
       </c>
       <c r="L32" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="M32" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="N32" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="O32" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="P32" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="R32" t="n">
-        <v>150.0440602784532</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="S32" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="T32" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="U32" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="V32" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="W32" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="X32" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="Y32" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
     </row>
     <row r="33">
@@ -29825,13 +29825,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -29840,13 +29840,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,28 +29873,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>79.64470283808822</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>98.76210202409084</v>
       </c>
       <c r="V33" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>150.0440602784519</v>
       </c>
     </row>
     <row r="34">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="C34" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="G34" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="H34" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="I34" t="n">
         <v>148.6838485916426</v>
       </c>
       <c r="J34" t="n">
-        <v>77.45106251930777</v>
+        <v>91.89273110472426</v>
       </c>
       <c r="K34" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>91.42399569050946</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="O34" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>150.044060278452</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R34" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="S34" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="T34" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="U34" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="V34" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="W34" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="X34" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
     </row>
     <row r="35">
@@ -30062,10 +30062,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>119.895413303235</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -30074,16 +30074,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I36" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,25 +30110,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T36" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>82.41018484055292</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>159.6257360692661</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -30159,13 +30159,13 @@
         <v>167.7659706229939</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>160.2266402957612</v>
       </c>
       <c r="I37" t="n">
         <v>148.6838485916426</v>
       </c>
       <c r="J37" t="n">
-        <v>77.45106251930777</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.32062995745122</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R37" t="n">
         <v>167.1761804170862</v>
@@ -30198,7 +30198,7 @@
         <v>226.984188467659</v>
       </c>
       <c r="U37" t="n">
-        <v>237.3794892261179</v>
+        <v>56.94660481768548</v>
       </c>
       <c r="V37" t="n">
         <v>237.3794892261179</v>
@@ -30302,16 +30302,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.0751276698277</v>
@@ -30350,19 +30350,19 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S39" t="n">
-        <v>131.7221598546967</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>119.6025821211772</v>
       </c>
       <c r="W39" t="n">
-        <v>237.3794892261179</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J40" t="n">
-        <v>77.45106251930777</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,13 +30423,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.32062995745122</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R40" t="n">
         <v>167.1761804170862</v>
       </c>
       <c r="S40" t="n">
-        <v>220.0953094380075</v>
+        <v>39.66242502957508</v>
       </c>
       <c r="T40" t="n">
         <v>226.984188467659</v>
@@ -30444,7 +30444,7 @@
         <v>237.3794892261179</v>
       </c>
       <c r="X40" t="n">
-        <v>45.27677098060482</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -30457,34 +30457,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>220.9000151151834</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="C41" t="n">
-        <v>220.9000151151834</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="D41" t="n">
-        <v>220.9000151151834</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="E41" t="n">
-        <v>220.9000151151834</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="F41" t="n">
-        <v>220.9000151151834</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="G41" t="n">
-        <v>220.9000151151834</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="H41" t="n">
-        <v>220.9000151151834</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="I41" t="n">
-        <v>220.9000151151834</v>
+        <v>191.1372470591394</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>172.0061221910879</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30499,34 +30499,34 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>99.22820764677618</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.359332514826</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="S41" t="n">
         <v>197.5894408014587</v>
       </c>
       <c r="T41" t="n">
-        <v>220.9000151151834</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="U41" t="n">
-        <v>220.9000151151834</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="V41" t="n">
-        <v>220.9000151151834</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="W41" t="n">
-        <v>220.9000151151834</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="X41" t="n">
-        <v>220.9000151151834</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="Y41" t="n">
-        <v>220.9000151151834</v>
+        <v>220.9000151151833</v>
       </c>
     </row>
     <row r="42">
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -30545,13 +30545,13 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>70.28719891685955</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H42" t="n">
         <v>109.6433667609296</v>
@@ -30593,7 +30593,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30602,10 +30602,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>201.0253852419109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30633,13 +30633,13 @@
         <v>167.7659706229939</v>
       </c>
       <c r="H43" t="n">
-        <v>40.12599184646169</v>
+        <v>160.2266402957612</v>
       </c>
       <c r="I43" t="n">
         <v>148.6838485916426</v>
       </c>
       <c r="J43" t="n">
-        <v>77.45106251930777</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>67.32062995745122</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R43" t="n">
         <v>167.1761804170862</v>
@@ -30669,19 +30669,19 @@
         <v>220.0953094380075</v>
       </c>
       <c r="T43" t="n">
-        <v>220.9000151151834</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="U43" t="n">
-        <v>220.9000151151834</v>
+        <v>100.7993666658841</v>
       </c>
       <c r="V43" t="n">
-        <v>220.9000151151834</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="W43" t="n">
-        <v>220.9000151151834</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="X43" t="n">
-        <v>220.9000151151834</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="C44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="D44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="E44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="F44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="G44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="H44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="I44" t="n">
-        <v>191.1372470591394</v>
+        <v>196.7443830621175</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30733,10 +30733,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>196.1617542441555</v>
       </c>
       <c r="P44" t="n">
-        <v>201.7688902471319</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -30748,22 +30748,22 @@
         <v>197.5894408014587</v>
       </c>
       <c r="T44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="U44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="V44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="W44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="X44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="Y44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
     </row>
     <row r="45">
@@ -30776,7 +30776,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>132.3173702852617</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -30785,10 +30785,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>109.6433667609296</v>
@@ -30821,28 +30821,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S45" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="V45" t="n">
-        <v>220.9000151151833</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1.844401138455169</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -30876,7 +30876,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J46" t="n">
-        <v>77.45106251930777</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.32062995745122</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R46" t="n">
         <v>167.1761804170862</v>
@@ -30906,22 +30906,22 @@
         <v>220.0953094380075</v>
       </c>
       <c r="T46" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="U46" t="n">
-        <v>220.9000151151833</v>
+        <v>100.7993666658845</v>
       </c>
       <c r="V46" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="W46" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="X46" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="Y46" t="n">
-        <v>98.48400490279559</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -31753,7 +31753,7 @@
         <v>0.5016183778293626</v>
       </c>
       <c r="H11" t="n">
-        <v>5.137199211944961</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I11" t="n">
         <v>19.33864251126652</v>
@@ -31765,25 +31765,25 @@
         <v>63.80773872881183</v>
       </c>
       <c r="L11" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M11" t="n">
-        <v>88.07979798603013</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N11" t="n">
         <v>89.50502120203781</v>
       </c>
       <c r="O11" t="n">
-        <v>84.51705345749708</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P11" t="n">
-        <v>72.13334975483468</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R11" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S11" t="n">
         <v>11.43062878478661</v>
@@ -31835,7 +31835,7 @@
         <v>2.592077475566878</v>
       </c>
       <c r="I12" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J12" t="n">
         <v>25.35692139018443</v>
@@ -31844,16 +31844,16 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L12" t="n">
-        <v>58.27465732422265</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M12" t="n">
         <v>68.00377645935444</v>
       </c>
       <c r="N12" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O12" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P12" t="n">
         <v>51.25062176713475</v>
@@ -31865,7 +31865,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S12" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T12" t="n">
         <v>1.081798001837402</v>
@@ -31911,10 +31911,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H13" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I13" t="n">
-        <v>6.766626335615719</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J13" t="n">
         <v>15.908117597365</v>
@@ -31923,7 +31923,7 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L13" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M13" t="n">
         <v>35.27114205109486</v>
@@ -31932,10 +31932,10 @@
         <v>34.43247312799862</v>
       </c>
       <c r="O13" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P13" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q13" t="n">
         <v>18.84141329424316</v>
@@ -31947,7 +31947,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9614009606225472</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U13" t="n">
         <v>0.01227320375262828</v>
@@ -31990,7 +31990,7 @@
         <v>0.5016183778293626</v>
       </c>
       <c r="H14" t="n">
-        <v>5.137199211944961</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I14" t="n">
         <v>19.33864251126652</v>
@@ -32002,25 +32002,25 @@
         <v>63.80773872881183</v>
       </c>
       <c r="L14" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M14" t="n">
-        <v>88.07979798603013</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N14" t="n">
         <v>89.50502120203781</v>
       </c>
       <c r="O14" t="n">
-        <v>84.51705345749708</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P14" t="n">
-        <v>72.13334975483468</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R14" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S14" t="n">
         <v>11.43062878478661</v>
@@ -32072,7 +32072,7 @@
         <v>2.592077475566878</v>
       </c>
       <c r="I15" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J15" t="n">
         <v>25.35692139018443</v>
@@ -32081,16 +32081,16 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L15" t="n">
-        <v>58.27465732422265</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M15" t="n">
         <v>68.00377645935444</v>
       </c>
       <c r="N15" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O15" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P15" t="n">
         <v>51.25062176713475</v>
@@ -32102,7 +32102,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S15" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T15" t="n">
         <v>1.081798001837402</v>
@@ -32148,10 +32148,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H16" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I16" t="n">
-        <v>6.766626335615719</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J16" t="n">
         <v>15.908117597365</v>
@@ -32160,7 +32160,7 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L16" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M16" t="n">
         <v>35.27114205109486</v>
@@ -32169,10 +32169,10 @@
         <v>34.43247312799862</v>
       </c>
       <c r="O16" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P16" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q16" t="n">
         <v>18.84141329424316</v>
@@ -32184,7 +32184,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9614009606225472</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U16" t="n">
         <v>0.01227320375262828</v>
@@ -32227,7 +32227,7 @@
         <v>0.5016183778293626</v>
       </c>
       <c r="H17" t="n">
-        <v>5.137199211944961</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I17" t="n">
         <v>19.33864251126652</v>
@@ -32239,25 +32239,25 @@
         <v>63.80773872881183</v>
       </c>
       <c r="L17" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M17" t="n">
-        <v>88.07979798603013</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N17" t="n">
         <v>89.50502120203781</v>
       </c>
       <c r="O17" t="n">
-        <v>84.51705345749708</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P17" t="n">
-        <v>72.13334975483468</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q17" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R17" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S17" t="n">
         <v>11.43062878478661</v>
@@ -32309,7 +32309,7 @@
         <v>2.592077475566878</v>
       </c>
       <c r="I18" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J18" t="n">
         <v>25.35692139018443</v>
@@ -32318,16 +32318,16 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L18" t="n">
-        <v>58.27465732422265</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M18" t="n">
         <v>68.00377645935444</v>
       </c>
       <c r="N18" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O18" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P18" t="n">
         <v>51.25062176713475</v>
@@ -32339,7 +32339,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S18" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T18" t="n">
         <v>1.081798001837402</v>
@@ -32385,10 +32385,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H19" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I19" t="n">
-        <v>6.766626335615719</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J19" t="n">
         <v>15.908117597365</v>
@@ -32397,7 +32397,7 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L19" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M19" t="n">
         <v>35.27114205109486</v>
@@ -32406,10 +32406,10 @@
         <v>34.43247312799862</v>
       </c>
       <c r="O19" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P19" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q19" t="n">
         <v>18.84141329424316</v>
@@ -32421,7 +32421,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9614009606225472</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U19" t="n">
         <v>0.01227320375262828</v>
@@ -32464,7 +32464,7 @@
         <v>0.5016183778293626</v>
       </c>
       <c r="H20" t="n">
-        <v>5.137199211944961</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I20" t="n">
         <v>19.33864251126652</v>
@@ -32476,25 +32476,25 @@
         <v>63.80773872881183</v>
       </c>
       <c r="L20" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M20" t="n">
-        <v>88.07979798603013</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N20" t="n">
         <v>89.50502120203781</v>
       </c>
       <c r="O20" t="n">
-        <v>84.51705345749708</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P20" t="n">
-        <v>72.13334975483468</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q20" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R20" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S20" t="n">
         <v>11.43062878478661</v>
@@ -32546,7 +32546,7 @@
         <v>2.592077475566878</v>
       </c>
       <c r="I21" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J21" t="n">
         <v>25.35692139018443</v>
@@ -32555,16 +32555,16 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L21" t="n">
-        <v>58.27465732422265</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M21" t="n">
         <v>68.00377645935444</v>
       </c>
       <c r="N21" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O21" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P21" t="n">
         <v>51.25062176713475</v>
@@ -32576,7 +32576,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S21" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T21" t="n">
         <v>1.081798001837402</v>
@@ -32622,10 +32622,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H22" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I22" t="n">
-        <v>6.766626335615719</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J22" t="n">
         <v>15.908117597365</v>
@@ -32634,7 +32634,7 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L22" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M22" t="n">
         <v>35.27114205109486</v>
@@ -32643,10 +32643,10 @@
         <v>34.43247312799862</v>
       </c>
       <c r="O22" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P22" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q22" t="n">
         <v>18.84141329424316</v>
@@ -32658,7 +32658,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9614009606225472</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U22" t="n">
         <v>0.01227320375262828</v>
@@ -32701,7 +32701,7 @@
         <v>0.5016183778293626</v>
       </c>
       <c r="H23" t="n">
-        <v>5.137199211944961</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I23" t="n">
         <v>19.33864251126652</v>
@@ -32713,25 +32713,25 @@
         <v>63.80773872881183</v>
       </c>
       <c r="L23" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M23" t="n">
-        <v>88.07979798603013</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N23" t="n">
         <v>89.50502120203781</v>
       </c>
       <c r="O23" t="n">
-        <v>84.51705345749708</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P23" t="n">
-        <v>72.13334975483468</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q23" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R23" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S23" t="n">
         <v>11.43062878478661</v>
@@ -32783,7 +32783,7 @@
         <v>2.592077475566878</v>
       </c>
       <c r="I24" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J24" t="n">
         <v>25.35692139018443</v>
@@ -32792,16 +32792,16 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L24" t="n">
-        <v>58.27465732422265</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M24" t="n">
         <v>68.00377645935444</v>
       </c>
       <c r="N24" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O24" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P24" t="n">
         <v>51.25062176713475</v>
@@ -32813,7 +32813,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S24" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T24" t="n">
         <v>1.081798001837402</v>
@@ -32859,10 +32859,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H25" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I25" t="n">
-        <v>6.766626335615719</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J25" t="n">
         <v>15.908117597365</v>
@@ -32871,7 +32871,7 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L25" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M25" t="n">
         <v>35.27114205109486</v>
@@ -32880,10 +32880,10 @@
         <v>34.43247312799862</v>
       </c>
       <c r="O25" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P25" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q25" t="n">
         <v>18.84141329424316</v>
@@ -32895,7 +32895,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9614009606225472</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U25" t="n">
         <v>0.01227320375262828</v>
@@ -32938,7 +32938,7 @@
         <v>0.5016183778293626</v>
       </c>
       <c r="H26" t="n">
-        <v>5.137199211944961</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I26" t="n">
         <v>19.33864251126652</v>
@@ -32950,25 +32950,25 @@
         <v>63.80773872881183</v>
       </c>
       <c r="L26" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M26" t="n">
-        <v>88.07979798603013</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N26" t="n">
         <v>89.50502120203781</v>
       </c>
       <c r="O26" t="n">
-        <v>84.51705345749708</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P26" t="n">
-        <v>72.13334975483468</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q26" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R26" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S26" t="n">
         <v>11.43062878478661</v>
@@ -33020,7 +33020,7 @@
         <v>2.592077475566878</v>
       </c>
       <c r="I27" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J27" t="n">
         <v>25.35692139018443</v>
@@ -33029,16 +33029,16 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L27" t="n">
-        <v>58.27465732422265</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M27" t="n">
         <v>68.00377645935444</v>
       </c>
       <c r="N27" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O27" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P27" t="n">
         <v>51.25062176713475</v>
@@ -33050,7 +33050,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S27" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T27" t="n">
         <v>1.081798001837402</v>
@@ -33096,10 +33096,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H28" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I28" t="n">
-        <v>6.766626335615719</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J28" t="n">
         <v>15.908117597365</v>
@@ -33108,7 +33108,7 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L28" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M28" t="n">
         <v>35.27114205109486</v>
@@ -33117,10 +33117,10 @@
         <v>34.43247312799862</v>
       </c>
       <c r="O28" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P28" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q28" t="n">
         <v>18.84141329424316</v>
@@ -33132,7 +33132,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9614009606225472</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U28" t="n">
         <v>0.01227320375262828</v>
@@ -33175,7 +33175,7 @@
         <v>0.5016183778293626</v>
       </c>
       <c r="H29" t="n">
-        <v>5.137199211944961</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I29" t="n">
         <v>19.33864251126652</v>
@@ -33187,25 +33187,25 @@
         <v>63.80773872881183</v>
       </c>
       <c r="L29" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M29" t="n">
-        <v>88.07979798603013</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N29" t="n">
         <v>89.50502120203781</v>
       </c>
       <c r="O29" t="n">
-        <v>84.51705345749708</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P29" t="n">
-        <v>72.13334975483468</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q29" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R29" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S29" t="n">
         <v>11.43062878478661</v>
@@ -33257,7 +33257,7 @@
         <v>2.592077475566878</v>
       </c>
       <c r="I30" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J30" t="n">
         <v>25.35692139018443</v>
@@ -33266,16 +33266,16 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L30" t="n">
-        <v>58.27465732422265</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M30" t="n">
         <v>68.00377645935444</v>
       </c>
       <c r="N30" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O30" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P30" t="n">
         <v>51.25062176713475</v>
@@ -33287,7 +33287,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S30" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T30" t="n">
         <v>1.081798001837402</v>
@@ -33333,10 +33333,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H31" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I31" t="n">
-        <v>6.766626335615719</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J31" t="n">
         <v>15.908117597365</v>
@@ -33345,7 +33345,7 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L31" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M31" t="n">
         <v>35.27114205109486</v>
@@ -33354,10 +33354,10 @@
         <v>34.43247312799862</v>
       </c>
       <c r="O31" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P31" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q31" t="n">
         <v>18.84141329424316</v>
@@ -33369,7 +33369,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9614009606225472</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U31" t="n">
         <v>0.01227320375262828</v>
@@ -33412,7 +33412,7 @@
         <v>0.5016183778293626</v>
       </c>
       <c r="H32" t="n">
-        <v>5.137199211944961</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I32" t="n">
         <v>19.33864251126652</v>
@@ -33424,25 +33424,25 @@
         <v>63.80773872881183</v>
       </c>
       <c r="L32" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M32" t="n">
-        <v>88.07979798603013</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N32" t="n">
         <v>89.50502120203781</v>
       </c>
       <c r="O32" t="n">
-        <v>84.51705345749708</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P32" t="n">
-        <v>72.13334975483468</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q32" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R32" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S32" t="n">
         <v>11.43062878478661</v>
@@ -33494,7 +33494,7 @@
         <v>2.592077475566878</v>
       </c>
       <c r="I33" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J33" t="n">
         <v>25.35692139018443</v>
@@ -33503,16 +33503,16 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L33" t="n">
-        <v>58.27465732422265</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M33" t="n">
         <v>68.00377645935444</v>
       </c>
       <c r="N33" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O33" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P33" t="n">
         <v>51.25062176713475</v>
@@ -33524,7 +33524,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S33" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T33" t="n">
         <v>1.081798001837402</v>
@@ -33570,10 +33570,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H34" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I34" t="n">
-        <v>6.766626335615719</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J34" t="n">
         <v>15.908117597365</v>
@@ -33582,7 +33582,7 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L34" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M34" t="n">
         <v>35.27114205109486</v>
@@ -33591,10 +33591,10 @@
         <v>34.43247312799862</v>
       </c>
       <c r="O34" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P34" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q34" t="n">
         <v>18.84141329424316</v>
@@ -33606,7 +33606,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9614009606225472</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U34" t="n">
         <v>0.01227320375262828</v>
@@ -33649,7 +33649,7 @@
         <v>0.5016183778293626</v>
       </c>
       <c r="H35" t="n">
-        <v>5.137199211944961</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I35" t="n">
         <v>19.33864251126652</v>
@@ -33661,25 +33661,25 @@
         <v>63.80773872881183</v>
       </c>
       <c r="L35" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M35" t="n">
-        <v>88.07979798603013</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N35" t="n">
         <v>89.50502120203781</v>
       </c>
       <c r="O35" t="n">
-        <v>84.51705345749708</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P35" t="n">
-        <v>72.13334975483468</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q35" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R35" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S35" t="n">
         <v>11.43062878478661</v>
@@ -33731,7 +33731,7 @@
         <v>2.592077475566878</v>
       </c>
       <c r="I36" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J36" t="n">
         <v>25.35692139018443</v>
@@ -33740,16 +33740,16 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L36" t="n">
-        <v>58.27465732422265</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M36" t="n">
         <v>68.00377645935444</v>
       </c>
       <c r="N36" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O36" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P36" t="n">
         <v>51.25062176713475</v>
@@ -33761,7 +33761,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S36" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T36" t="n">
         <v>1.081798001837402</v>
@@ -33807,10 +33807,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H37" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I37" t="n">
-        <v>6.766626335615719</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J37" t="n">
         <v>15.908117597365</v>
@@ -33819,7 +33819,7 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L37" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M37" t="n">
         <v>35.27114205109486</v>
@@ -33828,10 +33828,10 @@
         <v>34.43247312799862</v>
       </c>
       <c r="O37" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P37" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q37" t="n">
         <v>18.84141329424316</v>
@@ -33843,7 +33843,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9614009606225472</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U37" t="n">
         <v>0.01227320375262828</v>
@@ -33886,7 +33886,7 @@
         <v>0.5016183778293626</v>
       </c>
       <c r="H38" t="n">
-        <v>5.137199211944961</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I38" t="n">
         <v>19.33864251126652</v>
@@ -33898,25 +33898,25 @@
         <v>63.80773872881183</v>
       </c>
       <c r="L38" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M38" t="n">
-        <v>88.07979798603013</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N38" t="n">
         <v>89.50502120203781</v>
       </c>
       <c r="O38" t="n">
-        <v>84.51705345749708</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P38" t="n">
-        <v>72.13334975483468</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q38" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R38" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S38" t="n">
         <v>11.43062878478661</v>
@@ -33968,7 +33968,7 @@
         <v>2.592077475566878</v>
       </c>
       <c r="I39" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J39" t="n">
         <v>25.35692139018443</v>
@@ -33977,16 +33977,16 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L39" t="n">
-        <v>58.27465732422265</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M39" t="n">
         <v>68.00377645935444</v>
       </c>
       <c r="N39" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O39" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P39" t="n">
         <v>51.25062176713475</v>
@@ -33998,7 +33998,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S39" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T39" t="n">
         <v>1.081798001837402</v>
@@ -34044,10 +34044,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H40" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I40" t="n">
-        <v>6.766626335615719</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J40" t="n">
         <v>15.908117597365</v>
@@ -34056,7 +34056,7 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L40" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M40" t="n">
         <v>35.27114205109486</v>
@@ -34065,10 +34065,10 @@
         <v>34.43247312799862</v>
       </c>
       <c r="O40" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P40" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q40" t="n">
         <v>18.84141329424316</v>
@@ -34080,7 +34080,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9614009606225472</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U40" t="n">
         <v>0.01227320375262828</v>
@@ -34123,7 +34123,7 @@
         <v>0.5016183778293626</v>
       </c>
       <c r="H41" t="n">
-        <v>5.137199211944961</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I41" t="n">
         <v>19.33864251126652</v>
@@ -34135,25 +34135,25 @@
         <v>63.80773872881183</v>
       </c>
       <c r="L41" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M41" t="n">
-        <v>88.07979798603013</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N41" t="n">
         <v>89.50502120203781</v>
       </c>
       <c r="O41" t="n">
-        <v>84.51705345749708</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P41" t="n">
-        <v>72.13334975483468</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R41" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S41" t="n">
         <v>11.43062878478661</v>
@@ -34205,7 +34205,7 @@
         <v>2.592077475566878</v>
       </c>
       <c r="I42" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J42" t="n">
         <v>25.35692139018443</v>
@@ -34214,16 +34214,16 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L42" t="n">
-        <v>58.27465732422265</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M42" t="n">
         <v>68.00377645935444</v>
       </c>
       <c r="N42" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O42" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P42" t="n">
         <v>51.25062176713475</v>
@@ -34235,7 +34235,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S42" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T42" t="n">
         <v>1.081798001837402</v>
@@ -34281,10 +34281,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H43" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I43" t="n">
-        <v>6.766626335615719</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J43" t="n">
         <v>15.908117597365</v>
@@ -34293,7 +34293,7 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L43" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M43" t="n">
         <v>35.27114205109486</v>
@@ -34302,10 +34302,10 @@
         <v>34.43247312799862</v>
       </c>
       <c r="O43" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P43" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q43" t="n">
         <v>18.84141329424316</v>
@@ -34317,7 +34317,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9614009606225472</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U43" t="n">
         <v>0.01227320375262828</v>
@@ -34360,7 +34360,7 @@
         <v>0.5016183778293626</v>
       </c>
       <c r="H44" t="n">
-        <v>5.137199211944961</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I44" t="n">
         <v>19.33864251126652</v>
@@ -34372,25 +34372,25 @@
         <v>63.80773872881183</v>
       </c>
       <c r="L44" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M44" t="n">
-        <v>88.07979798603013</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N44" t="n">
         <v>89.50502120203781</v>
       </c>
       <c r="O44" t="n">
-        <v>84.51705345749708</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P44" t="n">
-        <v>72.13334975483468</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q44" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R44" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S44" t="n">
         <v>11.43062878478661</v>
@@ -34442,7 +34442,7 @@
         <v>2.592077475566878</v>
       </c>
       <c r="I45" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J45" t="n">
         <v>25.35692139018443</v>
@@ -34451,16 +34451,16 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L45" t="n">
-        <v>58.27465732422265</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M45" t="n">
         <v>68.00377645935444</v>
       </c>
       <c r="N45" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O45" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P45" t="n">
         <v>51.25062176713475</v>
@@ -34472,7 +34472,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S45" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T45" t="n">
         <v>1.081798001837402</v>
@@ -34518,10 +34518,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H46" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I46" t="n">
-        <v>6.766626335615719</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J46" t="n">
         <v>15.908117597365</v>
@@ -34530,7 +34530,7 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L46" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M46" t="n">
         <v>35.27114205109486</v>
@@ -34539,10 +34539,10 @@
         <v>34.43247312799862</v>
       </c>
       <c r="O46" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P46" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q46" t="n">
         <v>18.84141329424316</v>
@@ -34554,7 +34554,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9614009606225472</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U46" t="n">
         <v>0.01227320375262828</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K11" t="n">
         <v>167.863300254996</v>
@@ -35428,7 +35428,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.17844238427581</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L12" t="n">
-        <v>194.6152709571453</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M12" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N12" t="n">
-        <v>380.423838424175</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P12" t="n">
-        <v>235.7389829927417</v>
+        <v>221.2891269264855</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.2655385134049</v>
+        <v>54.26553851340478</v>
       </c>
       <c r="K13" t="n">
-        <v>3.872432167215347</v>
+        <v>135.5890331999279</v>
       </c>
       <c r="L13" t="n">
-        <v>177.6979167339703</v>
+        <v>177.6979167339729</v>
       </c>
       <c r="M13" t="n">
-        <v>206.5716200456481</v>
+        <v>206.571620045648</v>
       </c>
       <c r="N13" t="n">
-        <v>210.2812465399399</v>
+        <v>210.2812465399398</v>
       </c>
       <c r="O13" t="n">
-        <v>188.1056909377297</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P13" t="n">
-        <v>156.2089440851006</v>
+        <v>156.2089440851004</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.39597107526146</v>
+        <v>64.39597107526133</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K14" t="n">
         <v>167.863300254996</v>
@@ -35665,7 +35665,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.17844238427614</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K15" t="n">
         <v>169.9628154850614</v>
       </c>
       <c r="L15" t="n">
-        <v>290.5606228478076</v>
+        <v>0.0421254081569165</v>
       </c>
       <c r="M15" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N15" t="n">
-        <v>10.16047399767062</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O15" t="n">
         <v>315.1227627601127</v>
@@ -35744,7 +35744,7 @@
         <v>235.7389829927417</v>
       </c>
       <c r="Q15" t="n">
-        <v>104.3551970507805</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.2655385134049</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>135.589033199928</v>
@@ -35814,16 +35814,16 @@
         <v>206.5716200456481</v>
       </c>
       <c r="N16" t="n">
-        <v>78.56464550722721</v>
+        <v>210.2812465399399</v>
       </c>
       <c r="O16" t="n">
-        <v>188.1056909377297</v>
+        <v>95.59325649761652</v>
       </c>
       <c r="P16" t="n">
-        <v>141.1475721642951</v>
+        <v>156.2089440851005</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.39597107526146</v>
+        <v>64.39597107526144</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K17" t="n">
         <v>167.863300254996</v>
@@ -35893,7 +35893,7 @@
         <v>307.2470982515899</v>
       </c>
       <c r="N17" t="n">
-        <v>297.4388820174311</v>
+        <v>297.438882017431</v>
       </c>
       <c r="O17" t="n">
         <v>235.2190232985557</v>
@@ -35902,7 +35902,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.17844238427581</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K18" t="n">
         <v>169.9628154850614</v>
@@ -35969,10 +35969,10 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M18" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N18" t="n">
-        <v>10.16047399767062</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>315.1227627601127</v>
@@ -35981,7 +35981,7 @@
         <v>235.7389829927417</v>
       </c>
       <c r="Q18" t="n">
-        <v>104.3551970507805</v>
+        <v>89.90534098452417</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.872432167215347</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L19" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M19" t="n">
         <v>74.85501901293544</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K20" t="n">
         <v>167.863300254996</v>
@@ -36139,7 +36139,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.17844238427581</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36206,19 +36206,19 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M21" t="n">
-        <v>180.1232894827321</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N21" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O21" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P21" t="n">
-        <v>235.7389829927417</v>
+        <v>139.7936311020789</v>
       </c>
       <c r="Q21" t="n">
-        <v>104.3551970507805</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.872432167215347</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L22" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M22" t="n">
         <v>74.85501901293544</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K23" t="n">
         <v>167.863300254996</v>
@@ -36373,10 +36373,10 @@
         <v>235.2190232985557</v>
       </c>
       <c r="P23" t="n">
-        <v>162.6990621710478</v>
+        <v>162.6990621710476</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.17844238427581</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>90.26007390636471</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N24" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O24" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P24" t="n">
-        <v>235.7389829927417</v>
+        <v>156.0362414140446</v>
       </c>
       <c r="Q24" t="n">
         <v>104.3551970507805</v>
@@ -36516,10 +36516,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.872432167215347</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L25" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M25" t="n">
         <v>74.85501901293544</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>180.6690037191343</v>
+        <v>180.6690037191344</v>
       </c>
       <c r="K26" t="n">
         <v>317.907360533448</v>
@@ -36604,10 +36604,10 @@
         <v>457.2911585300419</v>
       </c>
       <c r="N26" t="n">
-        <v>447.4829422958846</v>
+        <v>447.482942295883</v>
       </c>
       <c r="O26" t="n">
-        <v>385.2630835770076</v>
+        <v>385.2630835770077</v>
       </c>
       <c r="P26" t="n">
         <v>312.7431224494998</v>
@@ -36616,7 +36616,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R26" t="n">
-        <v>31.684727763626</v>
+        <v>31.68472776362606</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.428587260239595</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>3.610097631882837</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>4.623012255520763</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>72.59299775914418</v>
+        <v>72.59299775914423</v>
       </c>
       <c r="K28" t="n">
-        <v>3.872432167215347</v>
+        <v>153.9164924456674</v>
       </c>
       <c r="L28" t="n">
-        <v>61.04268762206326</v>
+        <v>71.64057566602426</v>
       </c>
       <c r="M28" t="n">
-        <v>92.25742968406099</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N28" t="n">
         <v>78.56464550722721</v>
       </c>
       <c r="O28" t="n">
-        <v>206.433150183469</v>
+        <v>206.4331501834691</v>
       </c>
       <c r="P28" t="n">
-        <v>174.5364033308398</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.72343032100073</v>
+        <v>82.72343032100078</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.428587260239652</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>3.610097631882837</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>4.623012255520763</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,22 +36984,22 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.360211686809443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>3.872432167215347</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L31" t="n">
-        <v>211.0867479005153</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M31" t="n">
-        <v>224.8990792913875</v>
+        <v>158.0459048160406</v>
       </c>
       <c r="N31" t="n">
-        <v>78.56464550722721</v>
+        <v>228.6087057856792</v>
       </c>
       <c r="O31" t="n">
         <v>56.38908990501706</v>
@@ -37008,7 +37008,7 @@
         <v>174.5364033308399</v>
       </c>
       <c r="Q31" t="n">
-        <v>21.31456678600852</v>
+        <v>82.72343032100078</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>180.6690037191343</v>
       </c>
       <c r="K32" t="n">
-        <v>317.907360533448</v>
+        <v>317.9073605334491</v>
       </c>
       <c r="L32" t="n">
-        <v>411.0980020182224</v>
+        <v>411.0980020182222</v>
       </c>
       <c r="M32" t="n">
-        <v>457.2911585300419</v>
+        <v>457.2911585300418</v>
       </c>
       <c r="N32" t="n">
-        <v>447.482942295883</v>
+        <v>447.4829422958829</v>
       </c>
       <c r="O32" t="n">
         <v>385.2630835770076</v>
       </c>
       <c r="P32" t="n">
-        <v>312.7431224494998</v>
+        <v>312.7431224494997</v>
       </c>
       <c r="Q32" t="n">
-        <v>194.2225026627278</v>
+        <v>194.2225026627277</v>
       </c>
       <c r="R32" t="n">
-        <v>31.68472776362728</v>
+        <v>31.68472776362594</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.428587260239539</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>3.610097631882724</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>4.623012255520649</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>14.44166858541648</v>
       </c>
       <c r="K34" t="n">
-        <v>153.9164924456673</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L34" t="n">
-        <v>152.4666833125727</v>
+        <v>211.0867479005151</v>
       </c>
       <c r="M34" t="n">
         <v>74.85501901293544</v>
       </c>
       <c r="N34" t="n">
-        <v>78.56464550722721</v>
+        <v>228.6087057856791</v>
       </c>
       <c r="O34" t="n">
         <v>206.433150183469</v>
@@ -37245,7 +37245,7 @@
         <v>24.49234305238788</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.72343032100073</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K35" t="n">
         <v>167.863300254996</v>
@@ -37324,7 +37324,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q35" t="n">
-        <v>44.17844238427581</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>24.61033006392657</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>169.9628154850614</v>
+        <v>90.2600739063646</v>
       </c>
       <c r="L36" t="n">
-        <v>290.5606228478076</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>380.4238384241749</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="O36" t="n">
         <v>315.1227627601127</v>
@@ -37403,7 +37403,7 @@
         <v>235.7389829927417</v>
       </c>
       <c r="Q36" t="n">
-        <v>89.90534098452441</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3.872432167215347</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L37" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M37" t="n">
         <v>74.85501901293544</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K38" t="n">
         <v>167.863300254996</v>
@@ -37561,7 +37561,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.17844238427581</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K39" t="n">
         <v>169.9628154850614</v>
@@ -37628,19 +37628,19 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M39" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N39" t="n">
-        <v>325.2832367577832</v>
+        <v>89.90534098452441</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>315.1227627601127</v>
       </c>
       <c r="P39" t="n">
         <v>235.7389829927417</v>
       </c>
       <c r="Q39" t="n">
-        <v>104.3551970507805</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.872432167215347</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L40" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M40" t="n">
         <v>74.85501901293544</v>
@@ -37774,13 +37774,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>29.76276805604399</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K41" t="n">
-        <v>339.8694224460839</v>
+        <v>167.863300254996</v>
       </c>
       <c r="L41" t="n">
         <v>261.0539417397704</v>
@@ -37795,13 +37795,13 @@
         <v>235.2190232985557</v>
       </c>
       <c r="P41" t="n">
-        <v>162.6990621710478</v>
+        <v>261.927269817824</v>
       </c>
       <c r="Q41" t="n">
-        <v>44.17844238427581</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>102.5406826003574</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K42" t="n">
         <v>169.9628154850614</v>
       </c>
       <c r="L42" t="n">
-        <v>73.53472289854746</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M42" t="n">
         <v>391.5748062873361</v>
       </c>
       <c r="N42" t="n">
-        <v>417.8042963309015</v>
+        <v>176.1680663177164</v>
       </c>
       <c r="O42" t="n">
         <v>315.1227627601127</v>
@@ -37938,10 +37938,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.872432167215347</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L43" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M43" t="n">
         <v>74.85501901293544</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>5.607136002978129</v>
       </c>
       <c r="J44" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K44" t="n">
         <v>167.863300254996</v>
@@ -38029,13 +38029,13 @@
         <v>297.4388820174311</v>
       </c>
       <c r="O44" t="n">
-        <v>235.2190232985557</v>
+        <v>431.3807775427112</v>
       </c>
       <c r="P44" t="n">
-        <v>364.4679524181797</v>
+        <v>162.6990621710478</v>
       </c>
       <c r="Q44" t="n">
-        <v>44.17844238427581</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>24.61033006392657</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>169.9628154850614</v>
@@ -38108,10 +38108,10 @@
         <v>417.8042963309015</v>
       </c>
       <c r="O45" t="n">
-        <v>73.48653274692595</v>
+        <v>315.1227627601127</v>
       </c>
       <c r="P45" t="n">
-        <v>235.7389829927417</v>
+        <v>18.71308304348302</v>
       </c>
       <c r="Q45" t="n">
         <v>104.3551970507805</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.872432167215347</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L46" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M46" t="n">
         <v>74.85501901293544</v>
